--- a/public_list/20160601_20160630_public_list.xlsx
+++ b/public_list/20160601_20160630_public_list.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GitHub\201606\Mon\public_list\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="12945" windowHeight="11175"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3112" uniqueCount="1759">
   <si>
     <t>nid</t>
   </si>
@@ -5297,17 +5301,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5315,28 +5323,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -5626,52 +5650,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J390"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="42.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>8646110</v>
       </c>
       <c r="B2" t="s">
@@ -5686,7 +5717,7 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>20160602082618</v>
       </c>
       <c r="G2" t="s">
@@ -5702,8 +5733,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>8646111</v>
       </c>
       <c r="B3" t="s">
@@ -5718,7 +5749,7 @@
       <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>20160602083425</v>
       </c>
       <c r="G3" t="s">
@@ -5734,8 +5765,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>8646114</v>
       </c>
       <c r="B4" t="s">
@@ -5750,7 +5781,7 @@
       <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>20160602090120</v>
       </c>
       <c r="G4" t="s">
@@ -5766,8 +5797,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>8646115</v>
       </c>
       <c r="B5" t="s">
@@ -5782,7 +5813,7 @@
       <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>20160602093203</v>
       </c>
       <c r="G5" t="s">
@@ -5798,8 +5829,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>8646116</v>
       </c>
       <c r="B6" t="s">
@@ -5814,7 +5845,7 @@
       <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>20160602100208</v>
       </c>
       <c r="G6" t="s">
@@ -5830,8 +5861,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>8646117</v>
       </c>
       <c r="B7" t="s">
@@ -5846,7 +5877,7 @@
       <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>20160602000000</v>
       </c>
       <c r="G7" t="s">
@@ -5862,8 +5893,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>8646118</v>
       </c>
       <c r="B8" t="s">
@@ -5878,7 +5909,7 @@
       <c r="E8" t="s">
         <v>48</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>20160602101651</v>
       </c>
       <c r="G8" t="s">
@@ -5894,8 +5925,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8646119</v>
       </c>
       <c r="B9" t="s">
@@ -5910,7 +5941,7 @@
       <c r="E9" t="s">
         <v>48</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>20160602101854</v>
       </c>
       <c r="G9" t="s">
@@ -5926,8 +5957,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8646120</v>
       </c>
       <c r="B10" t="s">
@@ -5942,7 +5973,7 @@
       <c r="E10" t="s">
         <v>55</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>20160602000000</v>
       </c>
       <c r="G10" t="s">
@@ -5958,8 +5989,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>8646121</v>
       </c>
       <c r="B11" t="s">
@@ -5974,7 +6005,7 @@
       <c r="E11" t="s">
         <v>60</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>20160602102402</v>
       </c>
       <c r="G11" t="s">
@@ -5990,8 +6021,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>8646122</v>
       </c>
       <c r="B12" t="s">
@@ -6006,7 +6037,7 @@
       <c r="E12" t="s">
         <v>65</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>20160602103204</v>
       </c>
       <c r="G12" t="s">
@@ -6022,8 +6053,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>8646123</v>
       </c>
       <c r="B13" t="s">
@@ -6038,7 +6069,7 @@
       <c r="E13" t="s">
         <v>70</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>20160602000000</v>
       </c>
       <c r="G13" t="s">
@@ -6054,8 +6085,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>8646124</v>
       </c>
       <c r="B14" t="s">
@@ -6070,7 +6101,7 @@
       <c r="E14" t="s">
         <v>75</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>20160602104709</v>
       </c>
       <c r="G14" t="s">
@@ -6086,8 +6117,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>8646125</v>
       </c>
       <c r="B15" t="s">
@@ -6102,7 +6133,7 @@
       <c r="E15" t="s">
         <v>80</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>20160602105502</v>
       </c>
       <c r="G15" t="s">
@@ -6118,8 +6149,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>8646227</v>
       </c>
       <c r="B16" t="s">
@@ -6134,7 +6165,7 @@
       <c r="E16" t="s">
         <v>48</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>20160602113218</v>
       </c>
       <c r="G16" t="s">
@@ -6150,8 +6181,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>8655569</v>
       </c>
       <c r="B17" t="s">
@@ -6166,7 +6197,7 @@
       <c r="E17" t="s">
         <v>89</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>20160602113830</v>
       </c>
       <c r="G17" t="s">
@@ -6182,8 +6213,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>8659558</v>
       </c>
       <c r="B18" t="s">
@@ -6198,7 +6229,7 @@
       <c r="E18" t="s">
         <v>94</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>20160602115719</v>
       </c>
       <c r="G18" t="s">
@@ -6214,8 +6245,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>8659559</v>
       </c>
       <c r="B19" t="s">
@@ -6230,7 +6261,7 @@
       <c r="E19" t="s">
         <v>99</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>20160602000000</v>
       </c>
       <c r="G19" t="s">
@@ -6246,8 +6277,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>8659560</v>
       </c>
       <c r="B20" t="s">
@@ -6262,7 +6293,7 @@
       <c r="E20" t="s">
         <v>65</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>20160602123932</v>
       </c>
       <c r="G20" t="s">
@@ -6278,8 +6309,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>8659561</v>
       </c>
       <c r="B21" t="s">
@@ -6294,7 +6325,7 @@
       <c r="E21" t="s">
         <v>108</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>20160602125307</v>
       </c>
       <c r="G21" t="s">
@@ -6310,8 +6341,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>8659562</v>
       </c>
       <c r="B22" t="s">
@@ -6326,7 +6357,7 @@
       <c r="E22" t="s">
         <v>113</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>20160602130900</v>
       </c>
       <c r="G22" t="s">
@@ -6342,8 +6373,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>8659563</v>
       </c>
       <c r="B23" t="s">
@@ -6358,7 +6389,7 @@
       <c r="E23" t="s">
         <v>118</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>20160602131450</v>
       </c>
       <c r="G23" t="s">
@@ -6374,8 +6405,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>8659564</v>
       </c>
       <c r="B24" t="s">
@@ -6390,7 +6421,7 @@
       <c r="E24" t="s">
         <v>123</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>20160602132414</v>
       </c>
       <c r="G24" t="s">
@@ -6406,8 +6437,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>8659565</v>
       </c>
       <c r="B25" t="s">
@@ -6422,7 +6453,7 @@
       <c r="E25" t="s">
         <v>128</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>20160602132849</v>
       </c>
       <c r="G25" t="s">
@@ -6438,8 +6469,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>8659566</v>
       </c>
       <c r="B26" t="s">
@@ -6454,7 +6485,7 @@
       <c r="E26" t="s">
         <v>133</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>20160602133138</v>
       </c>
       <c r="G26" t="s">
@@ -6470,8 +6501,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>8659567</v>
       </c>
       <c r="B27" t="s">
@@ -6486,7 +6517,7 @@
       <c r="E27" t="s">
         <v>138</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>20160602133327</v>
       </c>
       <c r="G27" t="s">
@@ -6502,8 +6533,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>8659568</v>
       </c>
       <c r="B28" t="s">
@@ -6518,7 +6549,7 @@
       <c r="E28" t="s">
         <v>143</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>20160602135427</v>
       </c>
       <c r="G28" t="s">
@@ -6534,8 +6565,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>8659569</v>
       </c>
       <c r="B29" t="s">
@@ -6550,7 +6581,7 @@
       <c r="E29" t="s">
         <v>48</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>20160602140236</v>
       </c>
       <c r="G29" t="s">
@@ -6566,8 +6597,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>8659570</v>
       </c>
       <c r="B30" t="s">
@@ -6582,7 +6613,7 @@
       <c r="E30" t="s">
         <v>152</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>20160602140446</v>
       </c>
       <c r="G30" t="s">
@@ -6598,8 +6629,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>8659571</v>
       </c>
       <c r="B31" t="s">
@@ -6614,7 +6645,7 @@
       <c r="E31" t="s">
         <v>157</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>20160602140613</v>
       </c>
       <c r="G31" t="s">
@@ -6630,8 +6661,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>8659572</v>
       </c>
       <c r="B32" t="s">
@@ -6646,7 +6677,7 @@
       <c r="E32" t="s">
         <v>48</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>20160602140925</v>
       </c>
       <c r="G32" t="s">
@@ -6662,8 +6693,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>8659573</v>
       </c>
       <c r="B33" t="s">
@@ -6678,7 +6709,7 @@
       <c r="E33" t="s">
         <v>164</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>20160602150745</v>
       </c>
       <c r="G33" t="s">
@@ -6694,8 +6725,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>8659574</v>
       </c>
       <c r="B34" t="s">
@@ -6710,7 +6741,7 @@
       <c r="E34" t="s">
         <v>169</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>20160602000000</v>
       </c>
       <c r="G34" t="s">
@@ -6726,8 +6757,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>8660267</v>
       </c>
       <c r="B35" t="s">
@@ -6742,7 +6773,7 @@
       <c r="E35" t="s">
         <v>175</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>20160602153343</v>
       </c>
       <c r="G35" t="s">
@@ -6758,8 +6789,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>8660268</v>
       </c>
       <c r="B36" t="s">
@@ -6774,7 +6805,7 @@
       <c r="E36" t="s">
         <v>181</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>20160602154013</v>
       </c>
       <c r="G36" t="s">
@@ -6790,8 +6821,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>8660269</v>
       </c>
       <c r="B37" t="s">
@@ -6806,7 +6837,7 @@
       <c r="E37" t="s">
         <v>186</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>20160602155027</v>
       </c>
       <c r="G37" t="s">
@@ -6822,8 +6853,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>8660270</v>
       </c>
       <c r="B38" t="s">
@@ -6838,7 +6869,7 @@
       <c r="E38" t="s">
         <v>70</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>20160602155436</v>
       </c>
       <c r="G38" t="s">
@@ -6854,8 +6885,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>8660271</v>
       </c>
       <c r="B39" t="s">
@@ -6870,7 +6901,7 @@
       <c r="E39" t="s">
         <v>195</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>20160602155436</v>
       </c>
       <c r="G39" t="s">
@@ -6886,8 +6917,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>8660272</v>
       </c>
       <c r="B40" t="s">
@@ -6902,7 +6933,7 @@
       <c r="E40" t="s">
         <v>20</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>20160602155656</v>
       </c>
       <c r="G40" t="s">
@@ -6918,8 +6949,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>8660273</v>
       </c>
       <c r="B41" t="s">
@@ -6934,7 +6965,7 @@
       <c r="E41" t="s">
         <v>70</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <v>20160602155904</v>
       </c>
       <c r="G41" t="s">
@@ -6950,8 +6981,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>8660274</v>
       </c>
       <c r="B42" t="s">
@@ -6966,7 +6997,7 @@
       <c r="E42" t="s">
         <v>48</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <v>20160602161615</v>
       </c>
       <c r="G42" t="s">
@@ -6982,8 +7013,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>8660275</v>
       </c>
       <c r="B43" t="s">
@@ -6998,7 +7029,7 @@
       <c r="E43" t="s">
         <v>211</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>20160602000000</v>
       </c>
       <c r="G43" t="s">
@@ -7014,8 +7045,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>8660276</v>
       </c>
       <c r="B44" t="s">
@@ -7030,7 +7061,7 @@
       <c r="E44" t="s">
         <v>99</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
         <v>20160602170619</v>
       </c>
       <c r="G44" t="s">
@@ -7046,8 +7077,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>8660277</v>
       </c>
       <c r="B45" t="s">
@@ -7062,7 +7093,7 @@
       <c r="E45" t="s">
         <v>220</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <v>20160602171133</v>
       </c>
       <c r="G45" t="s">
@@ -7078,8 +7109,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>8660278</v>
       </c>
       <c r="B46" t="s">
@@ -7094,7 +7125,7 @@
       <c r="E46" t="s">
         <v>224</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
         <v>20160602172426</v>
       </c>
       <c r="G46" t="s">
@@ -7110,8 +7141,8 @@
         <v>226</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>8660279</v>
       </c>
       <c r="B47" t="s">
@@ -7126,7 +7157,7 @@
       <c r="E47" t="s">
         <v>224</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <v>20160602172554</v>
       </c>
       <c r="G47" t="s">
@@ -7142,8 +7173,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>8660280</v>
       </c>
       <c r="B48" t="s">
@@ -7158,7 +7189,7 @@
       <c r="E48" t="s">
         <v>231</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>20160602173058</v>
       </c>
       <c r="G48" t="s">
@@ -7174,8 +7205,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>8660281</v>
       </c>
       <c r="B49" t="s">
@@ -7190,7 +7221,7 @@
       <c r="E49" t="s">
         <v>236</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>20160602173823</v>
       </c>
       <c r="G49" t="s">
@@ -7206,8 +7237,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>8660282</v>
       </c>
       <c r="B50" t="s">
@@ -7222,7 +7253,7 @@
       <c r="E50" t="s">
         <v>33</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <v>20160602183901</v>
       </c>
       <c r="G50" t="s">
@@ -7238,8 +7269,8 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>8660283</v>
       </c>
       <c r="B51" t="s">
@@ -7254,7 +7285,7 @@
       <c r="E51" t="s">
         <v>99</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>20160602184556</v>
       </c>
       <c r="G51" t="s">
@@ -7270,8 +7301,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>8660284</v>
       </c>
       <c r="B52" t="s">
@@ -7286,7 +7317,7 @@
       <c r="E52" t="s">
         <v>248</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="3">
         <v>20160602200112</v>
       </c>
       <c r="G52" t="s">
@@ -7302,8 +7333,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>8660285</v>
       </c>
       <c r="B53" t="s">
@@ -7318,7 +7349,7 @@
       <c r="E53" t="s">
         <v>65</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="3">
         <v>20160602201330</v>
       </c>
       <c r="G53" t="s">
@@ -7334,8 +7365,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>8660286</v>
       </c>
       <c r="B54" t="s">
@@ -7350,7 +7381,7 @@
       <c r="E54" t="s">
         <v>257</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="3">
         <v>20160602202602</v>
       </c>
       <c r="G54" t="s">
@@ -7366,8 +7397,8 @@
         <v>259</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>8660287</v>
       </c>
       <c r="B55" t="s">
@@ -7382,7 +7413,7 @@
       <c r="E55" t="s">
         <v>262</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="3">
         <v>20160602000000</v>
       </c>
       <c r="G55" t="s">
@@ -7398,8 +7429,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>8660288</v>
       </c>
       <c r="B56" t="s">
@@ -7414,7 +7445,7 @@
       <c r="E56" t="s">
         <v>267</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="3">
         <v>20160602233426</v>
       </c>
       <c r="G56" t="s">
@@ -7430,8 +7461,8 @@
         <v>270</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>8660289</v>
       </c>
       <c r="B57" t="s">
@@ -7446,7 +7477,7 @@
       <c r="E57" t="s">
         <v>48</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="3">
         <v>20160603073025</v>
       </c>
       <c r="G57" t="s">
@@ -7462,8 +7493,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>8660290</v>
       </c>
       <c r="B58" t="s">
@@ -7478,7 +7509,7 @@
       <c r="E58" t="s">
         <v>277</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="3">
         <v>20160603084623</v>
       </c>
       <c r="G58" t="s">
@@ -7494,8 +7525,8 @@
         <v>279</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>8660291</v>
       </c>
       <c r="B59" t="s">
@@ -7510,7 +7541,7 @@
       <c r="E59" t="s">
         <v>282</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="3">
         <v>20160603094428</v>
       </c>
       <c r="G59" t="s">
@@ -7526,8 +7557,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>8660293</v>
       </c>
       <c r="B60" t="s">
@@ -7542,7 +7573,7 @@
       <c r="E60" t="s">
         <v>70</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="3">
         <v>20160603000000</v>
       </c>
       <c r="G60" t="s">
@@ -7558,8 +7589,8 @@
         <v>288</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>8660294</v>
       </c>
       <c r="B61" t="s">
@@ -7574,7 +7605,7 @@
       <c r="E61" t="s">
         <v>291</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="3">
         <v>20160603100713</v>
       </c>
       <c r="G61" t="s">
@@ -7590,8 +7621,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>8660295</v>
       </c>
       <c r="B62" t="s">
@@ -7606,7 +7637,7 @@
       <c r="E62" t="s">
         <v>296</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="3">
         <v>20160603000000</v>
       </c>
       <c r="G62" t="s">
@@ -7622,8 +7653,8 @@
         <v>298</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
-      <c r="A63">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>8660296</v>
       </c>
       <c r="B63" t="s">
@@ -7638,7 +7669,7 @@
       <c r="E63" t="s">
         <v>48</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="3">
         <v>20160603103129</v>
       </c>
       <c r="G63" t="s">
@@ -7654,8 +7685,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
-      <c r="A64">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>8660297</v>
       </c>
       <c r="B64" t="s">
@@ -7670,7 +7701,7 @@
       <c r="E64" t="s">
         <v>305</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="3">
         <v>20160603103537</v>
       </c>
       <c r="G64" t="s">
@@ -7686,8 +7717,8 @@
         <v>307</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
-      <c r="A65">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>8660298</v>
       </c>
       <c r="B65" t="s">
@@ -7702,7 +7733,7 @@
       <c r="E65" t="s">
         <v>65</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="3">
         <v>20160603104146</v>
       </c>
       <c r="G65" t="s">
@@ -7718,8 +7749,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
-      <c r="A66">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>8660299</v>
       </c>
       <c r="B66" t="s">
@@ -7734,7 +7765,7 @@
       <c r="E66" t="s">
         <v>48</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="3">
         <v>20160603104757</v>
       </c>
       <c r="G66" t="s">
@@ -7750,8 +7781,8 @@
         <v>315</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
-      <c r="A67">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>8660300</v>
       </c>
       <c r="B67" t="s">
@@ -7766,7 +7797,7 @@
       <c r="E67" t="s">
         <v>20</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="3">
         <v>20160603000000</v>
       </c>
       <c r="G67" t="s">
@@ -7782,8 +7813,8 @@
         <v>319</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
-      <c r="A68">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>8660301</v>
       </c>
       <c r="B68" t="s">
@@ -7798,7 +7829,7 @@
       <c r="E68" t="s">
         <v>48</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="3">
         <v>20160603110201</v>
       </c>
       <c r="G68" t="s">
@@ -7814,8 +7845,8 @@
         <v>320</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
-      <c r="A69">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>8671179</v>
       </c>
       <c r="B69" t="s">
@@ -7830,7 +7861,7 @@
       <c r="E69" t="s">
         <v>323</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="3">
         <v>20160603113843</v>
       </c>
       <c r="G69" t="s">
@@ -7846,8 +7877,8 @@
         <v>325</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
-      <c r="A70">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>8674180</v>
       </c>
       <c r="B70" t="s">
@@ -7862,7 +7893,7 @@
       <c r="E70" t="s">
         <v>328</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="3">
         <v>20160603131037</v>
       </c>
       <c r="G70" t="s">
@@ -7878,8 +7909,8 @@
         <v>330</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
-      <c r="A71">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>8674181</v>
       </c>
       <c r="B71" t="s">
@@ -7894,7 +7925,7 @@
       <c r="E71" t="s">
         <v>291</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="3">
         <v>20160603131242</v>
       </c>
       <c r="G71" t="s">
@@ -7910,8 +7941,8 @@
         <v>334</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
-      <c r="A72">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>8674183</v>
       </c>
       <c r="B72" t="s">
@@ -7926,7 +7957,7 @@
       <c r="E72" t="s">
         <v>328</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="3">
         <v>20160603132144</v>
       </c>
       <c r="G72" t="s">
@@ -7942,8 +7973,8 @@
         <v>338</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
-      <c r="A73">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>8674184</v>
       </c>
       <c r="B73" t="s">
@@ -7958,7 +7989,7 @@
       <c r="E73" t="s">
         <v>341</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="3">
         <v>20160603133635</v>
       </c>
       <c r="G73" t="s">
@@ -7974,8 +8005,8 @@
         <v>343</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
-      <c r="A74">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>8674185</v>
       </c>
       <c r="B74" t="s">
@@ -7990,7 +8021,7 @@
       <c r="E74" t="s">
         <v>346</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="3">
         <v>20160603135558</v>
       </c>
       <c r="G74" t="s">
@@ -8006,8 +8037,8 @@
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
-      <c r="A75">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>8674186</v>
       </c>
       <c r="B75" t="s">
@@ -8022,7 +8053,7 @@
       <c r="E75" t="s">
         <v>33</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="3">
         <v>20160603140131</v>
       </c>
       <c r="G75" t="s">
@@ -8038,8 +8069,8 @@
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
-      <c r="A76">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>8674187</v>
       </c>
       <c r="B76" t="s">
@@ -8054,7 +8085,7 @@
       <c r="E76" t="s">
         <v>355</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="3">
         <v>20160603140210</v>
       </c>
       <c r="G76" t="s">
@@ -8070,8 +8101,8 @@
         <v>357</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
-      <c r="A77">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>8674188</v>
       </c>
       <c r="B77" t="s">
@@ -8086,7 +8117,7 @@
       <c r="E77" t="s">
         <v>360</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="3">
         <v>20160603142804</v>
       </c>
       <c r="G77" t="s">
@@ -8102,8 +8133,8 @@
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
-      <c r="A78">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>8674189</v>
       </c>
       <c r="B78" t="s">
@@ -8118,7 +8149,7 @@
       <c r="E78" t="s">
         <v>365</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="3">
         <v>20160603142925</v>
       </c>
       <c r="G78" t="s">
@@ -8134,8 +8165,8 @@
         <v>367</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
-      <c r="A79">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>8674190</v>
       </c>
       <c r="B79" t="s">
@@ -8150,7 +8181,7 @@
       <c r="E79" t="s">
         <v>370</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="3">
         <v>20160603142932</v>
       </c>
       <c r="G79" t="s">
@@ -8166,8 +8197,8 @@
         <v>372</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
-      <c r="A80">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>8674191</v>
       </c>
       <c r="B80" t="s">
@@ -8182,7 +8213,7 @@
       <c r="E80" t="s">
         <v>375</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="3">
         <v>20160603142954</v>
       </c>
       <c r="G80" t="s">
@@ -8198,8 +8229,8 @@
         <v>377</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
-      <c r="A81">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>8674192</v>
       </c>
       <c r="B81" t="s">
@@ -8214,7 +8245,7 @@
       <c r="E81" t="s">
         <v>365</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="3">
         <v>20160603143247</v>
       </c>
       <c r="G81" t="s">
@@ -8230,8 +8261,8 @@
         <v>378</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
-      <c r="A82">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>8674193</v>
       </c>
       <c r="B82" t="s">
@@ -8246,7 +8277,7 @@
       <c r="E82" t="s">
         <v>381</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="3">
         <v>20160603143301</v>
       </c>
       <c r="G82" t="s">
@@ -8262,8 +8293,8 @@
         <v>383</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
-      <c r="A83">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>8674194</v>
       </c>
       <c r="B83" t="s">
@@ -8278,7 +8309,7 @@
       <c r="E83" t="s">
         <v>48</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="3">
         <v>20160603143858</v>
       </c>
       <c r="G83" t="s">
@@ -8294,8 +8325,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
-      <c r="A84">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>8674195</v>
       </c>
       <c r="B84" t="s">
@@ -8310,7 +8341,7 @@
       <c r="E84" t="s">
         <v>48</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="3">
         <v>20160603145019</v>
       </c>
       <c r="G84" t="s">
@@ -8326,8 +8357,8 @@
         <v>390</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
-      <c r="A85">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>8674196</v>
       </c>
       <c r="B85" t="s">
@@ -8342,7 +8373,7 @@
       <c r="E85" t="s">
         <v>328</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="3">
         <v>20160603145241</v>
       </c>
       <c r="G85" t="s">
@@ -8358,8 +8389,8 @@
         <v>393</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
-      <c r="A86">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>8674197</v>
       </c>
       <c r="B86" t="s">
@@ -8374,7 +8405,7 @@
       <c r="E86" t="s">
         <v>396</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="3">
         <v>20160603000000</v>
       </c>
       <c r="G86" t="s">
@@ -8390,8 +8421,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
-      <c r="A87">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>8674198</v>
       </c>
       <c r="B87" t="s">
@@ -8406,7 +8437,7 @@
       <c r="E87" t="s">
         <v>401</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="3">
         <v>20160603000000</v>
       </c>
       <c r="G87" t="s">
@@ -8422,8 +8453,8 @@
         <v>403</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
-      <c r="A88">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>8674199</v>
       </c>
       <c r="B88" t="s">
@@ -8438,7 +8469,7 @@
       <c r="E88" t="s">
         <v>406</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="3">
         <v>20160603152416</v>
       </c>
       <c r="G88" t="s">
@@ -8454,8 +8485,8 @@
         <v>408</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
-      <c r="A89">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>8675185</v>
       </c>
       <c r="B89" t="s">
@@ -8470,7 +8501,7 @@
       <c r="E89" t="s">
         <v>411</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="3">
         <v>20160603153511</v>
       </c>
       <c r="G89" t="s">
@@ -8486,8 +8517,8 @@
         <v>413</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
-      <c r="A90">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>8675186</v>
       </c>
       <c r="B90" t="s">
@@ -8502,7 +8533,7 @@
       <c r="E90" t="s">
         <v>328</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="3">
         <v>20160603154955</v>
       </c>
       <c r="G90" t="s">
@@ -8518,8 +8549,8 @@
         <v>417</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
-      <c r="A91">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>8675187</v>
       </c>
       <c r="B91" t="s">
@@ -8534,7 +8565,7 @@
       <c r="E91" t="s">
         <v>420</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="3">
         <v>20160603155547</v>
       </c>
       <c r="G91" t="s">
@@ -8550,8 +8581,8 @@
         <v>422</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
-      <c r="A92">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>8675188</v>
       </c>
       <c r="B92" t="s">
@@ -8566,7 +8597,7 @@
       <c r="E92" t="s">
         <v>328</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="3">
         <v>20160603155653</v>
       </c>
       <c r="G92" t="s">
@@ -8582,8 +8613,8 @@
         <v>426</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
-      <c r="A93">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>8675189</v>
       </c>
       <c r="B93" t="s">
@@ -8598,7 +8629,7 @@
       <c r="E93" t="s">
         <v>429</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="3">
         <v>20160603160442</v>
       </c>
       <c r="G93" t="s">
@@ -8614,8 +8645,8 @@
         <v>431</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
-      <c r="A94">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>8675190</v>
       </c>
       <c r="B94" t="s">
@@ -8630,7 +8661,7 @@
       <c r="E94" t="s">
         <v>434</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="3">
         <v>20160603161104</v>
       </c>
       <c r="G94" t="s">
@@ -8646,8 +8677,8 @@
         <v>436</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
-      <c r="A95">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>8675192</v>
       </c>
       <c r="B95" t="s">
@@ -8662,7 +8693,7 @@
       <c r="E95" t="s">
         <v>33</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="3">
         <v>20160603161520</v>
       </c>
       <c r="G95" t="s">
@@ -8678,8 +8709,8 @@
         <v>440</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
-      <c r="A96">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>8675193</v>
       </c>
       <c r="B96" t="s">
@@ -8694,7 +8725,7 @@
       <c r="E96" t="s">
         <v>33</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="3">
         <v>20160603161632</v>
       </c>
       <c r="G96" t="s">
@@ -8710,8 +8741,8 @@
         <v>442</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
-      <c r="A97">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>8675194</v>
       </c>
       <c r="B97" t="s">
@@ -8726,7 +8757,7 @@
       <c r="E97" t="s">
         <v>445</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="3">
         <v>20160603163956</v>
       </c>
       <c r="G97" t="s">
@@ -8742,8 +8773,8 @@
         <v>447</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
-      <c r="A98">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>8675195</v>
       </c>
       <c r="B98" t="s">
@@ -8758,7 +8789,7 @@
       <c r="E98" t="s">
         <v>48</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="3">
         <v>20160603164359</v>
       </c>
       <c r="G98" t="s">
@@ -8774,8 +8805,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
-      <c r="A99">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>8675196</v>
       </c>
       <c r="B99" t="s">
@@ -8790,7 +8821,7 @@
       <c r="E99" t="s">
         <v>48</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="3">
         <v>20160603170605</v>
       </c>
       <c r="G99" t="s">
@@ -8806,8 +8837,8 @@
         <v>455</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
-      <c r="A100">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>8675197</v>
       </c>
       <c r="B100" t="s">
@@ -8822,7 +8853,7 @@
       <c r="E100" t="s">
         <v>458</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="3">
         <v>20160603172245</v>
       </c>
       <c r="G100" t="s">
@@ -8838,8 +8869,8 @@
         <v>460</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
-      <c r="A101">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>8675198</v>
       </c>
       <c r="B101" t="s">
@@ -8854,7 +8885,7 @@
       <c r="E101" t="s">
         <v>70</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="3">
         <v>20160603173327</v>
       </c>
       <c r="G101" t="s">
@@ -8870,8 +8901,8 @@
         <v>464</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
-      <c r="A102">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>8675200</v>
       </c>
       <c r="B102" t="s">
@@ -8886,7 +8917,7 @@
       <c r="E102" t="s">
         <v>467</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="3">
         <v>20160603182046</v>
       </c>
       <c r="G102" t="s">
@@ -8902,8 +8933,8 @@
         <v>469</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
-      <c r="A103">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>8675201</v>
       </c>
       <c r="B103" t="s">
@@ -8918,7 +8949,7 @@
       <c r="E103" t="s">
         <v>472</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="3">
         <v>20160603185043</v>
       </c>
       <c r="G103" t="s">
@@ -8934,8 +8965,8 @@
         <v>474</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
-      <c r="A104">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>8675202</v>
       </c>
       <c r="B104" t="s">
@@ -8950,7 +8981,7 @@
       <c r="E104" t="s">
         <v>477</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="3">
         <v>20160603195645</v>
       </c>
       <c r="G104" t="s">
@@ -8966,8 +8997,8 @@
         <v>479</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
-      <c r="A105">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>8675203</v>
       </c>
       <c r="B105" t="s">
@@ -8982,7 +9013,7 @@
       <c r="E105" t="s">
         <v>482</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="3">
         <v>20160603202827</v>
       </c>
       <c r="G105" t="s">
@@ -8998,8 +9029,8 @@
         <v>484</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
-      <c r="A106">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>8675206</v>
       </c>
       <c r="B106" t="s">
@@ -9014,7 +9045,7 @@
       <c r="E106" t="s">
         <v>487</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="3">
         <v>20160603000000</v>
       </c>
       <c r="G106" t="s">
@@ -9030,8 +9061,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
-      <c r="A107">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>8675207</v>
       </c>
       <c r="B107" t="s">
@@ -9046,7 +9077,7 @@
       <c r="E107" t="s">
         <v>493</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="3">
         <v>20160603000000</v>
       </c>
       <c r="G107" t="s">
@@ -9062,8 +9093,8 @@
         <v>495</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
-      <c r="A108">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>8688878</v>
       </c>
       <c r="B108" t="s">
@@ -9078,7 +9109,7 @@
       <c r="E108" t="s">
         <v>498</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="3">
         <v>20160604154823</v>
       </c>
       <c r="G108" t="s">
@@ -9094,8 +9125,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
-      <c r="A109">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>8688879</v>
       </c>
       <c r="B109" t="s">
@@ -9110,7 +9141,7 @@
       <c r="E109" t="s">
         <v>503</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="3">
         <v>20160605072444</v>
       </c>
       <c r="G109" t="s">
@@ -9126,8 +9157,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
-      <c r="A110">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>8688880</v>
       </c>
       <c r="B110" t="s">
@@ -9142,7 +9173,7 @@
       <c r="E110" t="s">
         <v>503</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="3">
         <v>20160605072616</v>
       </c>
       <c r="G110" t="s">
@@ -9158,8 +9189,8 @@
         <v>507</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
-      <c r="A111">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>8688881</v>
       </c>
       <c r="B111" t="s">
@@ -9174,7 +9205,7 @@
       <c r="E111" t="s">
         <v>510</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="3">
         <v>20160605000000</v>
       </c>
       <c r="G111" t="s">
@@ -9190,8 +9221,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
-      <c r="A112">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>8688882</v>
       </c>
       <c r="B112" t="s">
@@ -9206,7 +9237,7 @@
       <c r="E112" t="s">
         <v>33</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="3">
         <v>20160605100836</v>
       </c>
       <c r="G112" t="s">
@@ -9222,8 +9253,8 @@
         <v>517</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
-      <c r="A113">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>8689086</v>
       </c>
       <c r="B113" t="s">
@@ -9238,7 +9269,7 @@
       <c r="E113" t="s">
         <v>48</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="3">
         <v>20160605152937</v>
       </c>
       <c r="G113" t="s">
@@ -9254,8 +9285,8 @@
         <v>521</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
-      <c r="A114">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>8689369</v>
       </c>
       <c r="B114" t="s">
@@ -9270,7 +9301,7 @@
       <c r="E114" t="s">
         <v>99</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="3">
         <v>20160605155924</v>
       </c>
       <c r="G114" t="s">
@@ -9286,8 +9317,8 @@
         <v>525</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
-      <c r="A115">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>8689370</v>
       </c>
       <c r="B115" t="s">
@@ -9302,7 +9333,7 @@
       <c r="E115" t="s">
         <v>396</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="3">
         <v>20160605000000</v>
       </c>
       <c r="G115" t="s">
@@ -9318,8 +9349,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
-      <c r="A116">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>8689371</v>
       </c>
       <c r="B116" t="s">
@@ -9334,7 +9365,7 @@
       <c r="E116" t="s">
         <v>531</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="3">
         <v>20160606104505</v>
       </c>
       <c r="G116" t="s">
@@ -9350,8 +9381,8 @@
         <v>533</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
-      <c r="A117">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>8689372</v>
       </c>
       <c r="B117" t="s">
@@ -9366,7 +9397,7 @@
       <c r="E117" t="s">
         <v>536</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="3">
         <v>20160606105454</v>
       </c>
       <c r="G117" t="s">
@@ -9382,8 +9413,8 @@
         <v>538</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
-      <c r="A118">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>8689373</v>
       </c>
       <c r="B118" t="s">
@@ -9398,7 +9429,7 @@
       <c r="E118" t="s">
         <v>541</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="3">
         <v>20160606111251</v>
       </c>
       <c r="G118" t="s">
@@ -9414,8 +9445,8 @@
         <v>543</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
-      <c r="A119">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>8689568</v>
       </c>
       <c r="B119" t="s">
@@ -9430,7 +9461,7 @@
       <c r="E119" t="s">
         <v>546</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="3">
         <v>20160606133435</v>
       </c>
       <c r="G119" t="s">
@@ -9446,8 +9477,8 @@
         <v>548</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
-      <c r="A120">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>8689569</v>
       </c>
       <c r="B120" t="s">
@@ -9462,7 +9493,7 @@
       <c r="E120" t="s">
         <v>551</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="3">
         <v>20160606143518</v>
       </c>
       <c r="G120" t="s">
@@ -9478,8 +9509,8 @@
         <v>553</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
-      <c r="A121">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>8689574</v>
       </c>
       <c r="B121" t="s">
@@ -9494,7 +9525,7 @@
       <c r="E121" t="s">
         <v>556</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="3">
         <v>20160606170017</v>
       </c>
       <c r="G121" t="s">
@@ -9510,8 +9541,8 @@
         <v>558</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
-      <c r="A122">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>8689575</v>
       </c>
       <c r="B122" t="s">
@@ -9526,7 +9557,7 @@
       <c r="E122" t="s">
         <v>561</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="3">
         <v>20160607093024</v>
       </c>
       <c r="G122" t="s">
@@ -9542,8 +9573,8 @@
         <v>563</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
-      <c r="A123">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>8689576</v>
       </c>
       <c r="B123" t="s">
@@ -9558,7 +9589,7 @@
       <c r="E123" t="s">
         <v>566</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="3">
         <v>20160607094832</v>
       </c>
       <c r="G123" t="s">
@@ -9574,8 +9605,8 @@
         <v>568</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
-      <c r="A124">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>8689577</v>
       </c>
       <c r="B124" t="s">
@@ -9590,7 +9621,7 @@
       <c r="E124" t="s">
         <v>571</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="3">
         <v>20160607094902</v>
       </c>
       <c r="G124" t="s">
@@ -9606,8 +9637,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
-      <c r="A125">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
         <v>8689578</v>
       </c>
       <c r="B125" t="s">
@@ -9622,7 +9653,7 @@
       <c r="E125" t="s">
         <v>566</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="3">
         <v>20160607094948</v>
       </c>
       <c r="G125" t="s">
@@ -9638,8 +9669,8 @@
         <v>575</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
-      <c r="A126">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>8689579</v>
       </c>
       <c r="B126" t="s">
@@ -9654,7 +9685,7 @@
       <c r="E126" t="s">
         <v>578</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="3">
         <v>20160607095046</v>
       </c>
       <c r="G126" t="s">
@@ -9670,8 +9701,8 @@
         <v>579</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
-      <c r="A127">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>8689580</v>
       </c>
       <c r="B127" t="s">
@@ -9686,7 +9717,7 @@
       <c r="E127" t="s">
         <v>99</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="3">
         <v>20160607095851</v>
       </c>
       <c r="G127" t="s">
@@ -9702,8 +9733,8 @@
         <v>583</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
-      <c r="A128">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>8689581</v>
       </c>
       <c r="B128" t="s">
@@ -9718,7 +9749,7 @@
       <c r="E128" t="s">
         <v>586</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="3">
         <v>20160607095931</v>
       </c>
       <c r="G128" t="s">
@@ -9734,8 +9765,8 @@
         <v>588</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
-      <c r="A129">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>8689582</v>
       </c>
       <c r="B129" t="s">
@@ -9750,7 +9781,7 @@
       <c r="E129" t="s">
         <v>591</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="3">
         <v>20160607101453</v>
       </c>
       <c r="G129" t="s">
@@ -9766,8 +9797,8 @@
         <v>593</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
-      <c r="A130">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
         <v>8689583</v>
       </c>
       <c r="B130" t="s">
@@ -9782,7 +9813,7 @@
       <c r="E130" t="s">
         <v>596</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="3">
         <v>20160607103524</v>
       </c>
       <c r="G130" t="s">
@@ -9798,8 +9829,8 @@
         <v>598</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
-      <c r="A131">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
         <v>8689584</v>
       </c>
       <c r="B131" t="s">
@@ -9814,7 +9845,7 @@
       <c r="E131" t="s">
         <v>601</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="3">
         <v>20160607104243</v>
       </c>
       <c r="G131" t="s">
@@ -9830,8 +9861,8 @@
         <v>603</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
-      <c r="A132">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
         <v>8689585</v>
       </c>
       <c r="B132" t="s">
@@ -9846,7 +9877,7 @@
       <c r="E132" t="s">
         <v>606</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="3">
         <v>20160607110854</v>
       </c>
       <c r="G132" t="s">
@@ -9862,8 +9893,8 @@
         <v>607</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
-      <c r="A133">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
         <v>8689586</v>
       </c>
       <c r="B133" t="s">
@@ -9878,7 +9909,7 @@
       <c r="E133" t="s">
         <v>610</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="3">
         <v>20160607111159</v>
       </c>
       <c r="G133" t="s">
@@ -9894,8 +9925,8 @@
         <v>612</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
-      <c r="A134">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>8689587</v>
       </c>
       <c r="B134" t="s">
@@ -9910,7 +9941,7 @@
       <c r="E134" t="s">
         <v>615</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="3">
         <v>20160607111940</v>
       </c>
       <c r="G134" t="s">
@@ -9926,8 +9957,8 @@
         <v>617</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
-      <c r="A135">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>8690157</v>
       </c>
       <c r="B135" t="s">
@@ -9942,7 +9973,7 @@
       <c r="E135" t="s">
         <v>620</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="3">
         <v>20160607112349</v>
       </c>
       <c r="G135" t="s">
@@ -9958,8 +9989,8 @@
         <v>622</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
-      <c r="A136">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
         <v>8690158</v>
       </c>
       <c r="B136" t="s">
@@ -9974,7 +10005,7 @@
       <c r="E136" t="s">
         <v>625</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="3">
         <v>20160607112817</v>
       </c>
       <c r="G136" t="s">
@@ -9990,8 +10021,8 @@
         <v>627</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
-      <c r="A137">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
         <v>8690159</v>
       </c>
       <c r="B137" t="s">
@@ -10006,7 +10037,7 @@
       <c r="E137" t="s">
         <v>630</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="3">
         <v>20160607130716</v>
       </c>
       <c r="G137" t="s">
@@ -10022,8 +10053,8 @@
         <v>632</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
-      <c r="A138">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
         <v>8690160</v>
       </c>
       <c r="B138" t="s">
@@ -10038,7 +10069,7 @@
       <c r="E138" t="s">
         <v>635</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="3">
         <v>20160607133253</v>
       </c>
       <c r="G138" t="s">
@@ -10054,8 +10085,8 @@
         <v>637</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
-      <c r="A139">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>8690161</v>
       </c>
       <c r="B139" t="s">
@@ -10070,7 +10101,7 @@
       <c r="E139" t="s">
         <v>640</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="3">
         <v>20160607133806</v>
       </c>
       <c r="G139" t="s">
@@ -10086,8 +10117,8 @@
         <v>642</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
-      <c r="A140">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
         <v>8690162</v>
       </c>
       <c r="B140" t="s">
@@ -10102,7 +10133,7 @@
       <c r="E140" t="s">
         <v>305</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="3">
         <v>20160607134320</v>
       </c>
       <c r="G140" t="s">
@@ -10118,8 +10149,8 @@
         <v>646</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
-      <c r="A141">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
         <v>8690163</v>
       </c>
       <c r="B141" t="s">
@@ -10134,7 +10165,7 @@
       <c r="E141" t="s">
         <v>649</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="3">
         <v>20160607134715</v>
       </c>
       <c r="G141" t="s">
@@ -10150,8 +10181,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
-      <c r="A142">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
         <v>8690164</v>
       </c>
       <c r="B142" t="s">
@@ -10166,7 +10197,7 @@
       <c r="E142" t="s">
         <v>70</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="3">
         <v>20160607000000</v>
       </c>
       <c r="G142" t="s">
@@ -10182,8 +10213,8 @@
         <v>655</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
-      <c r="A143">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>8690165</v>
       </c>
       <c r="B143" t="s">
@@ -10198,7 +10229,7 @@
       <c r="E143" t="s">
         <v>658</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="3">
         <v>20160607135853</v>
       </c>
       <c r="G143" t="s">
@@ -10214,8 +10245,8 @@
         <v>660</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
-      <c r="A144">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>8690166</v>
       </c>
       <c r="B144" t="s">
@@ -10230,7 +10261,7 @@
       <c r="E144" t="s">
         <v>663</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="3">
         <v>20160607140733</v>
       </c>
       <c r="G144" t="s">
@@ -10246,8 +10277,8 @@
         <v>665</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
-      <c r="A145">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
         <v>8690167</v>
       </c>
       <c r="B145" t="s">
@@ -10262,7 +10293,7 @@
       <c r="E145" t="s">
         <v>668</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="3">
         <v>20160607141101</v>
       </c>
       <c r="G145" t="s">
@@ -10278,8 +10309,8 @@
         <v>670</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
-      <c r="A146">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>8690169</v>
       </c>
       <c r="B146" t="s">
@@ -10294,7 +10325,7 @@
       <c r="E146" t="s">
         <v>673</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="3">
         <v>20160607142349</v>
       </c>
       <c r="G146" t="s">
@@ -10310,8 +10341,8 @@
         <v>675</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
-      <c r="A147">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>8690170</v>
       </c>
       <c r="B147" t="s">
@@ -10326,7 +10357,7 @@
       <c r="E147" t="s">
         <v>678</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="3">
         <v>20160607144124</v>
       </c>
       <c r="G147" t="s">
@@ -10342,8 +10373,8 @@
         <v>680</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
-      <c r="A148">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
         <v>8690171</v>
       </c>
       <c r="B148" t="s">
@@ -10358,7 +10389,7 @@
       <c r="E148" t="s">
         <v>683</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="3">
         <v>20160607145522</v>
       </c>
       <c r="G148" t="s">
@@ -10374,8 +10405,8 @@
         <v>685</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
-      <c r="A149">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
         <v>8690172</v>
       </c>
       <c r="B149" t="s">
@@ -10390,7 +10421,7 @@
       <c r="E149" t="s">
         <v>80</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="3">
         <v>20160607150924</v>
       </c>
       <c r="G149" t="s">
@@ -10406,8 +10437,8 @@
         <v>689</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
-      <c r="A150">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
         <v>8690173</v>
       </c>
       <c r="B150" t="s">
@@ -10422,7 +10453,7 @@
       <c r="E150" t="s">
         <v>13</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="3">
         <v>20160607152106</v>
       </c>
       <c r="G150" t="s">
@@ -10438,8 +10469,8 @@
         <v>693</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
-      <c r="A151">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>8690179</v>
       </c>
       <c r="B151" t="s">
@@ -10454,7 +10485,7 @@
       <c r="E151" t="s">
         <v>498</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="3">
         <v>20160607154917</v>
       </c>
       <c r="G151" t="s">
@@ -10470,8 +10501,8 @@
         <v>697</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
-      <c r="A152">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
         <v>8690180</v>
       </c>
       <c r="B152" t="s">
@@ -10486,7 +10517,7 @@
       <c r="E152" t="s">
         <v>65</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="3">
         <v>20160607155853</v>
       </c>
       <c r="G152" t="s">
@@ -10502,8 +10533,8 @@
         <v>701</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
-      <c r="A153">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
         <v>8690181</v>
       </c>
       <c r="B153" t="s">
@@ -10518,7 +10549,7 @@
       <c r="E153" t="s">
         <v>65</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="3">
         <v>20160607160011</v>
       </c>
       <c r="G153" t="s">
@@ -10534,8 +10565,8 @@
         <v>703</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
-      <c r="A154">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
         <v>8690182</v>
       </c>
       <c r="B154" t="s">
@@ -10550,7 +10581,7 @@
       <c r="E154" t="s">
         <v>625</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="3">
         <v>20160607161421</v>
       </c>
       <c r="G154" t="s">
@@ -10566,8 +10597,8 @@
         <v>705</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
-      <c r="A155">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
         <v>8690183</v>
       </c>
       <c r="B155" t="s">
@@ -10582,7 +10613,7 @@
       <c r="E155" t="s">
         <v>375</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="3">
         <v>20160607161901</v>
       </c>
       <c r="G155" t="s">
@@ -10598,8 +10629,8 @@
         <v>709</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
-      <c r="A156">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
         <v>8690185</v>
       </c>
       <c r="B156" t="s">
@@ -10614,7 +10645,7 @@
       <c r="E156" t="s">
         <v>33</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="3">
         <v>20160607162632</v>
       </c>
       <c r="G156" t="s">
@@ -10630,8 +10661,8 @@
         <v>713</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
-      <c r="A157">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
         <v>8690186</v>
       </c>
       <c r="B157" t="s">
@@ -10646,7 +10677,7 @@
       <c r="E157" t="s">
         <v>181</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="3">
         <v>20160607162701</v>
       </c>
       <c r="G157" t="s">
@@ -10662,8 +10693,8 @@
         <v>717</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
-      <c r="A158">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
         <v>8690187</v>
       </c>
       <c r="B158" t="s">
@@ -10678,7 +10709,7 @@
       <c r="E158" t="s">
         <v>606</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="3">
         <v>20160607163146</v>
       </c>
       <c r="G158" t="s">
@@ -10694,8 +10725,8 @@
         <v>721</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
-      <c r="A159">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
         <v>8690188</v>
       </c>
       <c r="B159" t="s">
@@ -10710,7 +10741,7 @@
       <c r="E159" t="s">
         <v>724</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="3">
         <v>20160607164535</v>
       </c>
       <c r="G159" t="s">
@@ -10726,8 +10757,8 @@
         <v>726</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
-      <c r="A160">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
         <v>8690189</v>
       </c>
       <c r="B160" t="s">
@@ -10742,7 +10773,7 @@
       <c r="E160" t="s">
         <v>729</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="3">
         <v>20160607170143</v>
       </c>
       <c r="G160" t="s">
@@ -10758,8 +10789,8 @@
         <v>731</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
-      <c r="A161">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
         <v>8690190</v>
       </c>
       <c r="B161" t="s">
@@ -10774,7 +10805,7 @@
       <c r="E161" t="s">
         <v>734</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="3">
         <v>20160607170230</v>
       </c>
       <c r="G161" t="s">
@@ -10790,8 +10821,8 @@
         <v>736</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
-      <c r="A162">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
         <v>8690191</v>
       </c>
       <c r="B162" t="s">
@@ -10806,7 +10837,7 @@
       <c r="E162" t="s">
         <v>739</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="3">
         <v>20160607170525</v>
       </c>
       <c r="G162" t="s">
@@ -10822,8 +10853,8 @@
         <v>741</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
-      <c r="A163">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
         <v>8690192</v>
       </c>
       <c r="B163" t="s">
@@ -10838,7 +10869,7 @@
       <c r="E163" t="s">
         <v>99</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="3">
         <v>20160607175354</v>
       </c>
       <c r="G163" t="s">
@@ -10854,8 +10885,8 @@
         <v>745</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
-      <c r="A164">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
         <v>8690193</v>
       </c>
       <c r="B164" t="s">
@@ -10870,7 +10901,7 @@
       <c r="E164" t="s">
         <v>99</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="3">
         <v>20160607175607</v>
       </c>
       <c r="G164" t="s">
@@ -10886,8 +10917,8 @@
         <v>749</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
-      <c r="A165">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
         <v>8690194</v>
       </c>
       <c r="B165" t="s">
@@ -10902,7 +10933,7 @@
       <c r="E165" t="s">
         <v>236</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="3">
         <v>20160607175839</v>
       </c>
       <c r="G165" t="s">
@@ -10918,8 +10949,8 @@
         <v>753</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
-      <c r="A166">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
         <v>8690195</v>
       </c>
       <c r="B166" t="s">
@@ -10934,7 +10965,7 @@
       <c r="E166" t="s">
         <v>756</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="3">
         <v>20160607181918</v>
       </c>
       <c r="G166" t="s">
@@ -10950,8 +10981,8 @@
         <v>758</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
-      <c r="A167">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
         <v>8690196</v>
       </c>
       <c r="B167" t="s">
@@ -10966,7 +10997,7 @@
       <c r="E167" t="s">
         <v>591</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="3">
         <v>20160607185109</v>
       </c>
       <c r="G167" t="s">
@@ -10982,8 +11013,8 @@
         <v>762</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
-      <c r="A168">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
         <v>8690197</v>
       </c>
       <c r="B168" t="s">
@@ -10998,7 +11029,7 @@
       <c r="E168" t="s">
         <v>764</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="3">
         <v>20160607202533</v>
       </c>
       <c r="G168" t="s">
@@ -11014,8 +11045,8 @@
         <v>766</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
-      <c r="A169">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
         <v>8690198</v>
       </c>
       <c r="B169" t="s">
@@ -11030,7 +11061,7 @@
       <c r="E169" t="s">
         <v>769</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="3">
         <v>20160607220028</v>
       </c>
       <c r="G169" t="s">
@@ -11046,8 +11077,8 @@
         <v>770</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
-      <c r="A170">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
         <v>8690199</v>
       </c>
       <c r="B170" t="s">
@@ -11062,7 +11093,7 @@
       <c r="E170" t="s">
         <v>773</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="3">
         <v>20160608085833</v>
       </c>
       <c r="G170" t="s">
@@ -11078,8 +11109,8 @@
         <v>775</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
-      <c r="A171">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
         <v>8690200</v>
       </c>
       <c r="B171" t="s">
@@ -11094,7 +11125,7 @@
       <c r="E171" t="s">
         <v>396</v>
       </c>
-      <c r="F171">
+      <c r="F171" s="3">
         <v>20160608092152</v>
       </c>
       <c r="G171" t="s">
@@ -11110,8 +11141,8 @@
         <v>779</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
-      <c r="A172">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
         <v>8690201</v>
       </c>
       <c r="B172" t="s">
@@ -11126,7 +11157,7 @@
       <c r="E172" t="s">
         <v>782</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="3">
         <v>20160608093210</v>
       </c>
       <c r="G172" t="s">
@@ -11142,8 +11173,8 @@
         <v>784</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
-      <c r="A173">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
         <v>8690202</v>
       </c>
       <c r="B173" t="s">
@@ -11158,7 +11189,7 @@
       <c r="E173" t="s">
         <v>787</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="3">
         <v>20160608095513</v>
       </c>
       <c r="G173" t="s">
@@ -11174,8 +11205,8 @@
         <v>789</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
-      <c r="A174">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
         <v>8690203</v>
       </c>
       <c r="B174" t="s">
@@ -11190,7 +11221,7 @@
       <c r="E174" t="s">
         <v>792</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="3">
         <v>20160608095907</v>
       </c>
       <c r="G174" t="s">
@@ -11206,8 +11237,8 @@
         <v>794</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
-      <c r="A175">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
         <v>8690204</v>
       </c>
       <c r="B175" t="s">
@@ -11222,7 +11253,7 @@
       <c r="E175" t="s">
         <v>99</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="3">
         <v>20160608101721</v>
       </c>
       <c r="G175" t="s">
@@ -11238,8 +11269,8 @@
         <v>798</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
-      <c r="A176">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
         <v>8690205</v>
       </c>
       <c r="B176" t="s">
@@ -11254,7 +11285,7 @@
       <c r="E176" t="s">
         <v>801</v>
       </c>
-      <c r="F176">
+      <c r="F176" s="3">
         <v>20160608103355</v>
       </c>
       <c r="G176" t="s">
@@ -11270,8 +11301,8 @@
         <v>803</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
-      <c r="A177">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
         <v>8690206</v>
       </c>
       <c r="B177" t="s">
@@ -11286,7 +11317,7 @@
       <c r="E177" t="s">
         <v>531</v>
       </c>
-      <c r="F177">
+      <c r="F177" s="3">
         <v>20160608104451</v>
       </c>
       <c r="G177" t="s">
@@ -11302,8 +11333,8 @@
         <v>807</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
-      <c r="A178">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
         <v>8690207</v>
       </c>
       <c r="B178" t="s">
@@ -11318,7 +11349,7 @@
       <c r="E178" t="s">
         <v>810</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="3">
         <v>20160608105636</v>
       </c>
       <c r="G178" t="s">
@@ -11334,8 +11365,8 @@
         <v>812</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
-      <c r="A179">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
         <v>8690208</v>
       </c>
       <c r="B179" t="s">
@@ -11350,7 +11381,7 @@
       <c r="E179" t="s">
         <v>815</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="3">
         <v>20160608111943</v>
       </c>
       <c r="G179" t="s">
@@ -11366,8 +11397,8 @@
         <v>817</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
-      <c r="A180">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
         <v>8690209</v>
       </c>
       <c r="B180" t="s">
@@ -11382,7 +11413,7 @@
       <c r="E180" t="s">
         <v>20</v>
       </c>
-      <c r="F180">
+      <c r="F180" s="3">
         <v>20160608112000</v>
       </c>
       <c r="G180" t="s">
@@ -11398,8 +11429,8 @@
         <v>821</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
-      <c r="A181">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
         <v>8690210</v>
       </c>
       <c r="B181" t="s">
@@ -11414,7 +11445,7 @@
       <c r="E181" t="s">
         <v>328</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="3">
         <v>20160608112137</v>
       </c>
       <c r="G181" t="s">
@@ -11430,8 +11461,8 @@
         <v>826</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
-      <c r="A182">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
         <v>8690211</v>
       </c>
       <c r="B182" t="s">
@@ -11446,7 +11477,7 @@
       <c r="E182" t="s">
         <v>70</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="3">
         <v>20160608112509</v>
       </c>
       <c r="G182" t="s">
@@ -11462,8 +11493,8 @@
         <v>830</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
-      <c r="A183">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
         <v>8705761</v>
       </c>
       <c r="B183" t="s">
@@ -11478,7 +11509,7 @@
       <c r="E183" t="s">
         <v>328</v>
       </c>
-      <c r="F183">
+      <c r="F183" s="3">
         <v>20160608131921</v>
       </c>
       <c r="G183" t="s">
@@ -11494,8 +11525,8 @@
         <v>832</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
-      <c r="A184">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
         <v>8705762</v>
       </c>
       <c r="B184" t="s">
@@ -11510,7 +11541,7 @@
       <c r="E184" t="s">
         <v>835</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="3">
         <v>20160608132659</v>
       </c>
       <c r="G184" t="s">
@@ -11526,8 +11557,8 @@
         <v>837</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
-      <c r="A185">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
         <v>8705763</v>
       </c>
       <c r="B185" t="s">
@@ -11542,7 +11573,7 @@
       <c r="E185" t="s">
         <v>840</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="3">
         <v>20160608135645</v>
       </c>
       <c r="G185" t="s">
@@ -11558,8 +11589,8 @@
         <v>842</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
-      <c r="A186">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
         <v>8705764</v>
       </c>
       <c r="B186" t="s">
@@ -11574,7 +11605,7 @@
       <c r="E186" t="s">
         <v>845</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="3">
         <v>20160608135752</v>
       </c>
       <c r="G186" t="s">
@@ -11590,8 +11621,8 @@
         <v>847</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
-      <c r="A187">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
         <v>8705765</v>
       </c>
       <c r="B187" t="s">
@@ -11606,7 +11637,7 @@
       <c r="E187" t="s">
         <v>80</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="3">
         <v>20160608135802</v>
       </c>
       <c r="G187" t="s">
@@ -11622,8 +11653,8 @@
         <v>851</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
-      <c r="A188">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
         <v>8705766</v>
       </c>
       <c r="B188" t="s">
@@ -11638,7 +11669,7 @@
       <c r="E188" t="s">
         <v>854</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="3">
         <v>20160608140501</v>
       </c>
       <c r="G188" t="s">
@@ -11654,8 +11685,8 @@
         <v>856</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
-      <c r="A189">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
         <v>8705767</v>
       </c>
       <c r="B189" t="s">
@@ -11670,7 +11701,7 @@
       <c r="E189" t="s">
         <v>291</v>
       </c>
-      <c r="F189">
+      <c r="F189" s="3">
         <v>20160608152727</v>
       </c>
       <c r="G189" t="s">
@@ -11686,8 +11717,8 @@
         <v>860</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
-      <c r="A190">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
         <v>8705768</v>
       </c>
       <c r="B190" t="s">
@@ -11702,7 +11733,7 @@
       <c r="E190" t="s">
         <v>863</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="3">
         <v>20160608153111</v>
       </c>
       <c r="G190" t="s">
@@ -11718,8 +11749,8 @@
         <v>865</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
-      <c r="A191">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
         <v>8706571</v>
       </c>
       <c r="B191" t="s">
@@ -11734,7 +11765,7 @@
       <c r="E191" t="s">
         <v>868</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="3">
         <v>20160608170105</v>
       </c>
       <c r="G191" t="s">
@@ -11750,8 +11781,8 @@
         <v>870</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
-      <c r="A192">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
         <v>8706572</v>
       </c>
       <c r="B192" t="s">
@@ -11766,7 +11797,7 @@
       <c r="E192" t="s">
         <v>873</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="3">
         <v>20160608170147</v>
       </c>
       <c r="G192" t="s">
@@ -11782,8 +11813,8 @@
         <v>875</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
-      <c r="A193">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
         <v>8706573</v>
       </c>
       <c r="B193" t="s">
@@ -11798,7 +11829,7 @@
       <c r="E193" t="s">
         <v>878</v>
       </c>
-      <c r="F193">
+      <c r="F193" s="3">
         <v>20160608171939</v>
       </c>
       <c r="G193" t="s">
@@ -11814,8 +11845,8 @@
         <v>880</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
-      <c r="A194">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
         <v>8706574</v>
       </c>
       <c r="B194" t="s">
@@ -11830,7 +11861,7 @@
       <c r="E194" t="s">
         <v>883</v>
       </c>
-      <c r="F194">
+      <c r="F194" s="3">
         <v>20160608174607</v>
       </c>
       <c r="G194" t="s">
@@ -11846,8 +11877,8 @@
         <v>885</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
-      <c r="A195">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
         <v>8706575</v>
       </c>
       <c r="B195" t="s">
@@ -11862,7 +11893,7 @@
       <c r="E195" t="s">
         <v>888</v>
       </c>
-      <c r="F195">
+      <c r="F195" s="3">
         <v>20160608181330</v>
       </c>
       <c r="G195" t="s">
@@ -11878,8 +11909,8 @@
         <v>890</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
-      <c r="A196">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
         <v>8706576</v>
       </c>
       <c r="B196" t="s">
@@ -11894,7 +11925,7 @@
       <c r="E196" t="s">
         <v>893</v>
       </c>
-      <c r="F196">
+      <c r="F196" s="3">
         <v>20160608182946</v>
       </c>
       <c r="G196" t="s">
@@ -11910,8 +11941,8 @@
         <v>895</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
-      <c r="A197">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
         <v>8706577</v>
       </c>
       <c r="B197" t="s">
@@ -11926,7 +11957,7 @@
       <c r="E197" t="s">
         <v>898</v>
       </c>
-      <c r="F197">
+      <c r="F197" s="3">
         <v>20160608185406</v>
       </c>
       <c r="G197" t="s">
@@ -11942,8 +11973,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
-      <c r="A198">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
         <v>8706578</v>
       </c>
       <c r="B198" t="s">
@@ -11958,7 +11989,7 @@
       <c r="E198" t="s">
         <v>48</v>
       </c>
-      <c r="F198">
+      <c r="F198" s="3">
         <v>20160608220915</v>
       </c>
       <c r="G198" t="s">
@@ -11974,8 +12005,8 @@
         <v>904</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
-      <c r="A199">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
         <v>8706579</v>
       </c>
       <c r="B199" t="s">
@@ -11990,7 +12021,7 @@
       <c r="E199" t="s">
         <v>907</v>
       </c>
-      <c r="F199">
+      <c r="F199" s="3">
         <v>20160609074057</v>
       </c>
       <c r="G199" t="s">
@@ -12006,8 +12037,8 @@
         <v>909</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
-      <c r="A200">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
         <v>8706580</v>
       </c>
       <c r="B200" t="s">
@@ -12022,7 +12053,7 @@
       <c r="E200" t="s">
         <v>48</v>
       </c>
-      <c r="F200">
+      <c r="F200" s="3">
         <v>20160609093625</v>
       </c>
       <c r="G200" t="s">
@@ -12038,8 +12069,8 @@
         <v>913</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
-      <c r="A201">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
         <v>8706581</v>
       </c>
       <c r="B201" t="s">
@@ -12054,7 +12085,7 @@
       <c r="E201" t="s">
         <v>916</v>
       </c>
-      <c r="F201">
+      <c r="F201" s="3">
         <v>20160609000000</v>
       </c>
       <c r="G201" t="s">
@@ -12070,8 +12101,8 @@
         <v>918</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
-      <c r="A202">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
         <v>8706582</v>
       </c>
       <c r="B202" t="s">
@@ -12086,7 +12117,7 @@
       <c r="E202" t="s">
         <v>70</v>
       </c>
-      <c r="F202">
+      <c r="F202" s="3">
         <v>20160609101750</v>
       </c>
       <c r="G202" t="s">
@@ -12102,8 +12133,8 @@
         <v>922</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
-      <c r="A203">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
         <v>8706583</v>
       </c>
       <c r="B203" t="s">
@@ -12118,7 +12149,7 @@
       <c r="E203" t="s">
         <v>925</v>
       </c>
-      <c r="F203">
+      <c r="F203" s="3">
         <v>20160609103514</v>
       </c>
       <c r="G203" t="s">
@@ -12134,8 +12165,8 @@
         <v>927</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
-      <c r="A204">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
         <v>8706584</v>
       </c>
       <c r="B204" t="s">
@@ -12150,7 +12181,7 @@
       <c r="E204" t="s">
         <v>291</v>
       </c>
-      <c r="F204">
+      <c r="F204" s="3">
         <v>20160609104343</v>
       </c>
       <c r="G204" t="s">
@@ -12166,8 +12197,8 @@
         <v>930</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
-      <c r="A205">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
         <v>8706585</v>
       </c>
       <c r="B205" t="s">
@@ -12182,7 +12213,7 @@
       <c r="E205" t="s">
         <v>933</v>
       </c>
-      <c r="F205">
+      <c r="F205" s="3">
         <v>20160609104516</v>
       </c>
       <c r="G205" t="s">
@@ -12198,8 +12229,8 @@
         <v>935</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
-      <c r="A206">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
         <v>8706586</v>
       </c>
       <c r="B206" t="s">
@@ -12214,7 +12245,7 @@
       <c r="E206" t="s">
         <v>938</v>
       </c>
-      <c r="F206">
+      <c r="F206" s="3">
         <v>20160609111805</v>
       </c>
       <c r="G206" t="s">
@@ -12230,8 +12261,8 @@
         <v>940</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
-      <c r="A207">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
         <v>8706587</v>
       </c>
       <c r="B207" t="s">
@@ -12246,7 +12277,7 @@
       <c r="E207" t="s">
         <v>943</v>
       </c>
-      <c r="F207">
+      <c r="F207" s="3">
         <v>20160609111845</v>
       </c>
       <c r="G207" t="s">
@@ -12262,8 +12293,8 @@
         <v>945</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
-      <c r="A208">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
         <v>8706588</v>
       </c>
       <c r="B208" t="s">
@@ -12278,7 +12309,7 @@
       <c r="E208" t="s">
         <v>948</v>
       </c>
-      <c r="F208">
+      <c r="F208" s="3">
         <v>20160609111911</v>
       </c>
       <c r="G208" t="s">
@@ -12294,8 +12325,8 @@
         <v>950</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
-      <c r="A209">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
         <v>8706589</v>
       </c>
       <c r="B209" t="s">
@@ -12310,7 +12341,7 @@
       <c r="E209" t="s">
         <v>953</v>
       </c>
-      <c r="F209">
+      <c r="F209" s="3">
         <v>20160609111929</v>
       </c>
       <c r="G209" t="s">
@@ -12326,8 +12357,8 @@
         <v>955</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
-      <c r="A210">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
         <v>8706590</v>
       </c>
       <c r="B210" t="s">
@@ -12342,7 +12373,7 @@
       <c r="E210" t="s">
         <v>958</v>
       </c>
-      <c r="F210">
+      <c r="F210" s="3">
         <v>20160609112155</v>
       </c>
       <c r="G210" t="s">
@@ -12358,8 +12389,8 @@
         <v>960</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
-      <c r="A211">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
         <v>8706591</v>
       </c>
       <c r="B211" t="s">
@@ -12374,7 +12405,7 @@
       <c r="E211" t="s">
         <v>99</v>
       </c>
-      <c r="F211">
+      <c r="F211" s="3">
         <v>20160609112401</v>
       </c>
       <c r="G211" t="s">
@@ -12390,8 +12421,8 @@
         <v>964</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
-      <c r="A212">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
         <v>8706592</v>
       </c>
       <c r="B212" t="s">
@@ -12406,7 +12437,7 @@
       <c r="E212" t="s">
         <v>958</v>
       </c>
-      <c r="F212">
+      <c r="F212" s="3">
         <v>20160609112441</v>
       </c>
       <c r="G212" t="s">
@@ -12422,8 +12453,8 @@
         <v>966</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
-      <c r="A213">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
         <v>8706593</v>
       </c>
       <c r="B213" t="s">
@@ -12438,7 +12469,7 @@
       <c r="E213" t="s">
         <v>969</v>
       </c>
-      <c r="F213">
+      <c r="F213" s="3">
         <v>20160609112825</v>
       </c>
       <c r="G213" t="s">
@@ -12454,8 +12485,8 @@
         <v>971</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
-      <c r="A214">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
         <v>8719240</v>
       </c>
       <c r="B214" t="s">
@@ -12470,7 +12501,7 @@
       <c r="E214" t="s">
         <v>974</v>
       </c>
-      <c r="F214">
+      <c r="F214" s="3">
         <v>20160609114924</v>
       </c>
       <c r="G214" t="s">
@@ -12486,8 +12517,8 @@
         <v>976</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
-      <c r="A215">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
         <v>8719241</v>
       </c>
       <c r="B215" t="s">
@@ -12502,7 +12533,7 @@
       <c r="E215" t="s">
         <v>979</v>
       </c>
-      <c r="F215">
+      <c r="F215" s="3">
         <v>20160609121236</v>
       </c>
       <c r="G215" t="s">
@@ -12518,8 +12549,8 @@
         <v>981</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
-      <c r="A216">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
         <v>8719242</v>
       </c>
       <c r="B216" t="s">
@@ -12534,7 +12565,7 @@
       <c r="E216" t="s">
         <v>20</v>
       </c>
-      <c r="F216">
+      <c r="F216" s="3">
         <v>20160609123205</v>
       </c>
       <c r="G216" t="s">
@@ -12550,8 +12581,8 @@
         <v>985</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
-      <c r="A217">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
         <v>8719243</v>
       </c>
       <c r="B217" t="s">
@@ -12566,7 +12597,7 @@
       <c r="E217" t="s">
         <v>988</v>
       </c>
-      <c r="F217">
+      <c r="F217" s="3">
         <v>20160609141440</v>
       </c>
       <c r="G217" t="s">
@@ -12582,8 +12613,8 @@
         <v>990</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
-      <c r="A218">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
         <v>8719244</v>
       </c>
       <c r="B218" t="s">
@@ -12598,7 +12629,7 @@
       <c r="E218" t="s">
         <v>993</v>
       </c>
-      <c r="F218">
+      <c r="F218" s="3">
         <v>20160609144746</v>
       </c>
       <c r="G218" t="s">
@@ -12614,8 +12645,8 @@
         <v>995</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
-      <c r="A219">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
         <v>8719245</v>
       </c>
       <c r="B219" t="s">
@@ -12630,7 +12661,7 @@
       <c r="E219" t="s">
         <v>998</v>
       </c>
-      <c r="F219">
+      <c r="F219" s="3">
         <v>20160609145408</v>
       </c>
       <c r="G219" t="s">
@@ -12646,8 +12677,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
-      <c r="A220">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
         <v>8719246</v>
       </c>
       <c r="B220" t="s">
@@ -12662,7 +12693,7 @@
       <c r="E220" t="s">
         <v>1003</v>
       </c>
-      <c r="F220">
+      <c r="F220" s="3">
         <v>20160609152636</v>
       </c>
       <c r="G220" t="s">
@@ -12678,8 +12709,8 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
-      <c r="A221">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
         <v>8720267</v>
       </c>
       <c r="B221" t="s">
@@ -12694,7 +12725,7 @@
       <c r="E221" t="s">
         <v>1008</v>
       </c>
-      <c r="F221">
+      <c r="F221" s="3">
         <v>20160609160327</v>
       </c>
       <c r="G221" t="s">
@@ -12710,8 +12741,8 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
-      <c r="A222">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
         <v>8720268</v>
       </c>
       <c r="B222" t="s">
@@ -12726,7 +12757,7 @@
       <c r="E222" t="s">
         <v>1013</v>
       </c>
-      <c r="F222">
+      <c r="F222" s="3">
         <v>20160609163314</v>
       </c>
       <c r="G222" t="s">
@@ -12742,8 +12773,8 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
-      <c r="A223">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
         <v>8720269</v>
       </c>
       <c r="B223" t="s">
@@ -12758,7 +12789,7 @@
       <c r="E223" t="s">
         <v>80</v>
       </c>
-      <c r="F223">
+      <c r="F223" s="3">
         <v>20160609163633</v>
       </c>
       <c r="G223" t="s">
@@ -12774,8 +12805,8 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
-      <c r="A224">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
         <v>8720270</v>
       </c>
       <c r="B224" t="s">
@@ -12790,7 +12821,7 @@
       <c r="E224" t="s">
         <v>1023</v>
       </c>
-      <c r="F224">
+      <c r="F224" s="3">
         <v>20160609000000</v>
       </c>
       <c r="G224" t="s">
@@ -12806,8 +12837,8 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
-      <c r="A225">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
         <v>8720271</v>
       </c>
       <c r="B225" t="s">
@@ -12822,7 +12853,7 @@
       <c r="E225" t="s">
         <v>48</v>
       </c>
-      <c r="F225">
+      <c r="F225" s="3">
         <v>20160609170440</v>
       </c>
       <c r="G225" t="s">
@@ -12838,8 +12869,8 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
-      <c r="A226">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
         <v>8720272</v>
       </c>
       <c r="B226" t="s">
@@ -12854,7 +12885,7 @@
       <c r="E226" t="s">
         <v>1032</v>
       </c>
-      <c r="F226">
+      <c r="F226" s="3">
         <v>20160609171508</v>
       </c>
       <c r="G226" t="s">
@@ -12870,8 +12901,8 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
-      <c r="A227">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
         <v>8720273</v>
       </c>
       <c r="B227" t="s">
@@ -12886,7 +12917,7 @@
       <c r="E227" t="s">
         <v>1037</v>
       </c>
-      <c r="F227">
+      <c r="F227" s="3">
         <v>20160609172721</v>
       </c>
       <c r="G227" t="s">
@@ -12902,8 +12933,8 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
-      <c r="A228">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
         <v>8720274</v>
       </c>
       <c r="B228" t="s">
@@ -12918,7 +12949,7 @@
       <c r="E228" t="s">
         <v>1042</v>
       </c>
-      <c r="F228">
+      <c r="F228" s="3">
         <v>20160609000000</v>
       </c>
       <c r="G228" t="s">
@@ -12934,8 +12965,8 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
-      <c r="A229">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
         <v>8720275</v>
       </c>
       <c r="B229" t="s">
@@ -12950,7 +12981,7 @@
       <c r="E229" t="s">
         <v>328</v>
       </c>
-      <c r="F229">
+      <c r="F229" s="3">
         <v>20160609173143</v>
       </c>
       <c r="G229" t="s">
@@ -12966,8 +12997,8 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
-      <c r="A230">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
         <v>8720276</v>
       </c>
       <c r="B230" t="s">
@@ -12982,7 +13013,7 @@
       <c r="E230" t="s">
         <v>70</v>
       </c>
-      <c r="F230">
+      <c r="F230" s="3">
         <v>20160609173931</v>
       </c>
       <c r="G230" t="s">
@@ -12998,8 +13029,8 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
-      <c r="A231">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
         <v>8720277</v>
       </c>
       <c r="B231" t="s">
@@ -13014,7 +13045,7 @@
       <c r="E231" t="s">
         <v>1053</v>
       </c>
-      <c r="F231">
+      <c r="F231" s="3">
         <v>20160609174000</v>
       </c>
       <c r="G231" t="s">
@@ -13030,8 +13061,8 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
-      <c r="A232">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
         <v>8720278</v>
       </c>
       <c r="B232" t="s">
@@ -13046,7 +13077,7 @@
       <c r="E232" t="s">
         <v>1058</v>
       </c>
-      <c r="F232">
+      <c r="F232" s="3">
         <v>20160609175126</v>
       </c>
       <c r="G232" t="s">
@@ -13062,8 +13093,8 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
-      <c r="A233">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
         <v>8720279</v>
       </c>
       <c r="B233" t="s">
@@ -13078,7 +13109,7 @@
       <c r="E233" t="s">
         <v>1063</v>
       </c>
-      <c r="F233">
+      <c r="F233" s="3">
         <v>20160609175332</v>
       </c>
       <c r="G233" t="s">
@@ -13094,8 +13125,8 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
-      <c r="A234">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
         <v>8720280</v>
       </c>
       <c r="B234" t="s">
@@ -13110,7 +13141,7 @@
       <c r="E234" t="s">
         <v>291</v>
       </c>
-      <c r="F234">
+      <c r="F234" s="3">
         <v>20160609000000</v>
       </c>
       <c r="G234" t="s">
@@ -13126,8 +13157,8 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
-      <c r="A235">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
         <v>8720281</v>
       </c>
       <c r="B235" t="s">
@@ -13142,7 +13173,7 @@
       <c r="E235" t="s">
         <v>1072</v>
       </c>
-      <c r="F235">
+      <c r="F235" s="3">
         <v>20160609175700</v>
       </c>
       <c r="G235" t="s">
@@ -13158,8 +13189,8 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
-      <c r="A236">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
         <v>8720282</v>
       </c>
       <c r="B236" t="s">
@@ -13174,7 +13205,7 @@
       <c r="E236" t="s">
         <v>328</v>
       </c>
-      <c r="F236">
+      <c r="F236" s="3">
         <v>20160609180308</v>
       </c>
       <c r="G236" t="s">
@@ -13190,8 +13221,8 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
-      <c r="A237">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
         <v>8720283</v>
       </c>
       <c r="B237" t="s">
@@ -13206,7 +13237,7 @@
       <c r="E237" t="s">
         <v>1081</v>
       </c>
-      <c r="F237">
+      <c r="F237" s="3">
         <v>20160609182523</v>
       </c>
       <c r="G237" t="s">
@@ -13222,8 +13253,8 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
-      <c r="A238">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
         <v>8720284</v>
       </c>
       <c r="B238" t="s">
@@ -13238,7 +13269,7 @@
       <c r="E238" t="s">
         <v>1085</v>
       </c>
-      <c r="F238">
+      <c r="F238" s="3">
         <v>20160609000000</v>
       </c>
       <c r="G238" t="s">
@@ -13254,8 +13285,8 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
-      <c r="A239">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
         <v>8720285</v>
       </c>
       <c r="B239" t="s">
@@ -13270,7 +13301,7 @@
       <c r="E239" t="s">
         <v>1090</v>
       </c>
-      <c r="F239">
+      <c r="F239" s="3">
         <v>20160609202309</v>
       </c>
       <c r="G239" t="s">
@@ -13286,8 +13317,8 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
-      <c r="A240">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
         <v>8720286</v>
       </c>
       <c r="B240" t="s">
@@ -13302,7 +13333,7 @@
       <c r="E240" t="s">
         <v>1095</v>
       </c>
-      <c r="F240">
+      <c r="F240" s="3">
         <v>20160609203325</v>
       </c>
       <c r="G240" t="s">
@@ -13318,8 +13349,8 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
-      <c r="A241">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
         <v>8720287</v>
       </c>
       <c r="B241" t="s">
@@ -13334,7 +13365,7 @@
       <c r="E241" t="s">
         <v>591</v>
       </c>
-      <c r="F241">
+      <c r="F241" s="3">
         <v>20160609223257</v>
       </c>
       <c r="G241" t="s">
@@ -13350,8 +13381,8 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="242" spans="1:10">
-      <c r="A242">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
         <v>8720288</v>
       </c>
       <c r="B242" t="s">
@@ -13366,7 +13397,7 @@
       <c r="E242" t="s">
         <v>1104</v>
       </c>
-      <c r="F242">
+      <c r="F242" s="3">
         <v>20160609223511</v>
       </c>
       <c r="G242" t="s">
@@ -13382,8 +13413,8 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
-      <c r="A243">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
         <v>8720289</v>
       </c>
       <c r="B243" t="s">
@@ -13398,7 +13429,7 @@
       <c r="E243" t="s">
         <v>1109</v>
       </c>
-      <c r="F243">
+      <c r="F243" s="3">
         <v>20160609231233</v>
       </c>
       <c r="G243" t="s">
@@ -13414,8 +13445,8 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
-      <c r="A244">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
         <v>8720290</v>
       </c>
       <c r="B244" t="s">
@@ -13430,7 +13461,7 @@
       <c r="E244" t="s">
         <v>1114</v>
       </c>
-      <c r="F244">
+      <c r="F244" s="3">
         <v>20160610065451</v>
       </c>
       <c r="G244" t="s">
@@ -13446,8 +13477,8 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
-      <c r="A245">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
         <v>8720291</v>
       </c>
       <c r="B245" t="s">
@@ -13462,7 +13493,7 @@
       <c r="E245" t="s">
         <v>1119</v>
       </c>
-      <c r="F245">
+      <c r="F245" s="3">
         <v>20160610084440</v>
       </c>
       <c r="G245" t="s">
@@ -13478,8 +13509,8 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="246" spans="1:10">
-      <c r="A246">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
         <v>8720292</v>
       </c>
       <c r="B246" t="s">
@@ -13494,7 +13525,7 @@
       <c r="E246" t="s">
         <v>1124</v>
       </c>
-      <c r="F246">
+      <c r="F246" s="3">
         <v>20160610084927</v>
       </c>
       <c r="G246" t="s">
@@ -13510,8 +13541,8 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="247" spans="1:10">
-      <c r="A247">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
         <v>8720293</v>
       </c>
       <c r="B247" t="s">
@@ -13526,7 +13557,7 @@
       <c r="E247" t="s">
         <v>1129</v>
       </c>
-      <c r="F247">
+      <c r="F247" s="3">
         <v>20160610085840</v>
       </c>
       <c r="G247" t="s">
@@ -13542,8 +13573,8 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="248" spans="1:10">
-      <c r="A248">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
         <v>8720294</v>
       </c>
       <c r="B248" t="s">
@@ -13558,7 +13589,7 @@
       <c r="E248" t="s">
         <v>1134</v>
       </c>
-      <c r="F248">
+      <c r="F248" s="3">
         <v>20160610090404</v>
       </c>
       <c r="G248" t="s">
@@ -13574,8 +13605,8 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="249" spans="1:10">
-      <c r="A249">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
         <v>8720295</v>
       </c>
       <c r="B249" t="s">
@@ -13590,7 +13621,7 @@
       <c r="E249" t="s">
         <v>236</v>
       </c>
-      <c r="F249">
+      <c r="F249" s="3">
         <v>20160610093624</v>
       </c>
       <c r="G249" t="s">
@@ -13606,8 +13637,8 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="250" spans="1:10">
-      <c r="A250">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
         <v>8720296</v>
       </c>
       <c r="B250" t="s">
@@ -13622,7 +13653,7 @@
       <c r="E250" t="s">
         <v>1143</v>
       </c>
-      <c r="F250">
+      <c r="F250" s="3">
         <v>20160610093928</v>
       </c>
       <c r="G250" t="s">
@@ -13638,8 +13669,8 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="251" spans="1:10">
-      <c r="A251">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
         <v>8720297</v>
       </c>
       <c r="B251" t="s">
@@ -13654,7 +13685,7 @@
       <c r="E251" t="s">
         <v>48</v>
       </c>
-      <c r="F251">
+      <c r="F251" s="3">
         <v>20160610095852</v>
       </c>
       <c r="G251" t="s">
@@ -13670,8 +13701,8 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
-      <c r="A252">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
         <v>8720298</v>
       </c>
       <c r="B252" t="s">
@@ -13686,7 +13717,7 @@
       <c r="E252" t="s">
         <v>99</v>
       </c>
-      <c r="F252">
+      <c r="F252" s="3">
         <v>20160610102413</v>
       </c>
       <c r="G252" t="s">
@@ -13702,8 +13733,8 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="253" spans="1:10">
-      <c r="A253">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
         <v>8720299</v>
       </c>
       <c r="B253" t="s">
@@ -13718,7 +13749,7 @@
       <c r="E253" t="s">
         <v>65</v>
       </c>
-      <c r="F253">
+      <c r="F253" s="3">
         <v>20160610104002</v>
       </c>
       <c r="G253" t="s">
@@ -13734,8 +13765,8 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="254" spans="1:10">
-      <c r="A254">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
         <v>8720300</v>
       </c>
       <c r="B254" t="s">
@@ -13750,7 +13781,7 @@
       <c r="E254" t="s">
         <v>1160</v>
       </c>
-      <c r="F254">
+      <c r="F254" s="3">
         <v>20160610105629</v>
       </c>
       <c r="G254" t="s">
@@ -13766,8 +13797,8 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="255" spans="1:10">
-      <c r="A255">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
         <v>8720301</v>
       </c>
       <c r="B255" t="s">
@@ -13782,7 +13813,7 @@
       <c r="E255" t="s">
         <v>1165</v>
       </c>
-      <c r="F255">
+      <c r="F255" s="3">
         <v>20160610000000</v>
       </c>
       <c r="G255" t="s">
@@ -13798,8 +13829,8 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="256" spans="1:10">
-      <c r="A256">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
         <v>8733038</v>
       </c>
       <c r="B256" t="s">
@@ -13814,7 +13845,7 @@
       <c r="E256" t="s">
         <v>649</v>
       </c>
-      <c r="F256">
+      <c r="F256" s="3">
         <v>20160610131612</v>
       </c>
       <c r="G256" t="s">
@@ -13830,8 +13861,8 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
-      <c r="A257">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
         <v>8733039</v>
       </c>
       <c r="B257" t="s">
@@ -13846,7 +13877,7 @@
       <c r="E257" t="s">
         <v>1174</v>
       </c>
-      <c r="F257">
+      <c r="F257" s="3">
         <v>20160610132638</v>
       </c>
       <c r="G257" t="s">
@@ -13862,8 +13893,8 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
-      <c r="A258">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
         <v>8733040</v>
       </c>
       <c r="B258" t="s">
@@ -13878,7 +13909,7 @@
       <c r="E258" t="s">
         <v>1174</v>
       </c>
-      <c r="F258">
+      <c r="F258" s="3">
         <v>20160610133904</v>
       </c>
       <c r="G258" t="s">
@@ -13894,8 +13925,8 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
-      <c r="A259">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
         <v>8733041</v>
       </c>
       <c r="B259" t="s">
@@ -13910,7 +13941,7 @@
       <c r="E259" t="s">
         <v>1181</v>
       </c>
-      <c r="F259">
+      <c r="F259" s="3">
         <v>20160610133959</v>
       </c>
       <c r="G259" t="s">
@@ -13926,8 +13957,8 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
-      <c r="A260">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
         <v>8733042</v>
       </c>
       <c r="B260" t="s">
@@ -13942,7 +13973,7 @@
       <c r="E260" t="s">
         <v>181</v>
       </c>
-      <c r="F260">
+      <c r="F260" s="3">
         <v>20160610134934</v>
       </c>
       <c r="G260" t="s">
@@ -13958,8 +13989,8 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
-      <c r="A261">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
         <v>8733043</v>
       </c>
       <c r="B261" t="s">
@@ -13974,7 +14005,7 @@
       <c r="E261" t="s">
         <v>1190</v>
       </c>
-      <c r="F261">
+      <c r="F261" s="3">
         <v>20160610142136</v>
       </c>
       <c r="G261" t="s">
@@ -13990,8 +14021,8 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
-      <c r="A262">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
         <v>8733044</v>
       </c>
       <c r="B262" t="s">
@@ -14006,7 +14037,7 @@
       <c r="E262" t="s">
         <v>1195</v>
       </c>
-      <c r="F262">
+      <c r="F262" s="3">
         <v>20160610144103</v>
       </c>
       <c r="G262" t="s">
@@ -14022,8 +14053,8 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="263" spans="1:10">
-      <c r="A263">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
         <v>8733045</v>
       </c>
       <c r="B263" t="s">
@@ -14038,7 +14069,7 @@
       <c r="E263" t="s">
         <v>1200</v>
       </c>
-      <c r="F263">
+      <c r="F263" s="3">
         <v>20160610150448</v>
       </c>
       <c r="G263" t="s">
@@ -14054,8 +14085,8 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
-      <c r="A264">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
         <v>8733046</v>
       </c>
       <c r="B264" t="s">
@@ -14070,7 +14101,7 @@
       <c r="E264" t="s">
         <v>1205</v>
       </c>
-      <c r="F264">
+      <c r="F264" s="3">
         <v>20160610151044</v>
       </c>
       <c r="G264" t="s">
@@ -14086,8 +14117,8 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
-      <c r="A265">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
         <v>8733047</v>
       </c>
       <c r="B265" t="s">
@@ -14102,7 +14133,7 @@
       <c r="E265" t="s">
         <v>1210</v>
       </c>
-      <c r="F265">
+      <c r="F265" s="3">
         <v>20160610152115</v>
       </c>
       <c r="G265" t="s">
@@ -14118,8 +14149,8 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
-      <c r="A266">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
         <v>8733048</v>
       </c>
       <c r="B266" t="s">
@@ -14134,7 +14165,7 @@
       <c r="E266" t="s">
         <v>1215</v>
       </c>
-      <c r="F266">
+      <c r="F266" s="3">
         <v>20160610153034</v>
       </c>
       <c r="G266" t="s">
@@ -14150,8 +14181,8 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
-      <c r="A267">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
         <v>8733975</v>
       </c>
       <c r="B267" t="s">
@@ -14166,7 +14197,7 @@
       <c r="E267" t="s">
         <v>123</v>
       </c>
-      <c r="F267">
+      <c r="F267" s="3">
         <v>20160610163040</v>
       </c>
       <c r="G267" t="s">
@@ -14182,8 +14213,8 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
-      <c r="A268">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
         <v>8733976</v>
       </c>
       <c r="B268" t="s">
@@ -14198,7 +14229,7 @@
       <c r="E268" t="s">
         <v>1226</v>
       </c>
-      <c r="F268">
+      <c r="F268" s="3">
         <v>20160610164804</v>
       </c>
       <c r="G268" t="s">
@@ -14214,8 +14245,8 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
-      <c r="A269">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
         <v>8733977</v>
       </c>
       <c r="B269" t="s">
@@ -14230,7 +14261,7 @@
       <c r="E269" t="s">
         <v>769</v>
       </c>
-      <c r="F269">
+      <c r="F269" s="3">
         <v>20160610165253</v>
       </c>
       <c r="G269" t="s">
@@ -14246,8 +14277,8 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
-      <c r="A270">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
         <v>8733978</v>
       </c>
       <c r="B270" t="s">
@@ -14262,7 +14293,7 @@
       <c r="E270" t="s">
         <v>1237</v>
       </c>
-      <c r="F270">
+      <c r="F270" s="3">
         <v>20160610172140</v>
       </c>
       <c r="G270" t="s">
@@ -14278,8 +14309,8 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
-      <c r="A271">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
         <v>8733980</v>
       </c>
       <c r="B271" t="s">
@@ -14294,7 +14325,7 @@
       <c r="E271" t="s">
         <v>1242</v>
       </c>
-      <c r="F271">
+      <c r="F271" s="3">
         <v>20160610173012</v>
       </c>
       <c r="G271" t="s">
@@ -14310,8 +14341,8 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
-      <c r="A272">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
         <v>8733981</v>
       </c>
       <c r="B272" t="s">
@@ -14326,7 +14357,7 @@
       <c r="E272" t="s">
         <v>175</v>
       </c>
-      <c r="F272">
+      <c r="F272" s="3">
         <v>20160610174427</v>
       </c>
       <c r="G272" t="s">
@@ -14342,8 +14373,8 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
-      <c r="A273">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
         <v>8733982</v>
       </c>
       <c r="B273" t="s">
@@ -14358,7 +14389,7 @@
       <c r="E273" t="s">
         <v>1251</v>
       </c>
-      <c r="F273">
+      <c r="F273" s="3">
         <v>20160610180004</v>
       </c>
       <c r="G273" t="s">
@@ -14374,8 +14405,8 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
-      <c r="A274">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
         <v>8733983</v>
       </c>
       <c r="B274" t="s">
@@ -14390,7 +14421,7 @@
       <c r="E274" t="s">
         <v>1256</v>
       </c>
-      <c r="F274">
+      <c r="F274" s="3">
         <v>20160610181351</v>
       </c>
       <c r="G274" t="s">
@@ -14406,8 +14437,8 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
-      <c r="A275">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
         <v>8733984</v>
       </c>
       <c r="B275" t="s">
@@ -14422,7 +14453,7 @@
       <c r="E275" t="s">
         <v>1261</v>
       </c>
-      <c r="F275">
+      <c r="F275" s="3">
         <v>20160610181533</v>
       </c>
       <c r="G275" t="s">
@@ -14438,8 +14469,8 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
-      <c r="A276">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
         <v>8733985</v>
       </c>
       <c r="B276" t="s">
@@ -14454,7 +14485,7 @@
       <c r="E276" t="s">
         <v>26</v>
       </c>
-      <c r="F276">
+      <c r="F276" s="3">
         <v>20160610000000</v>
       </c>
       <c r="G276" t="s">
@@ -14470,8 +14501,8 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
-      <c r="A277">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
         <v>8733986</v>
       </c>
       <c r="B277" t="s">
@@ -14486,7 +14517,7 @@
       <c r="E277" t="s">
         <v>1270</v>
       </c>
-      <c r="F277">
+      <c r="F277" s="3">
         <v>20160610182240</v>
       </c>
       <c r="G277" t="s">
@@ -14502,8 +14533,8 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
-      <c r="A278">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
         <v>8733987</v>
       </c>
       <c r="B278" t="s">
@@ -14518,7 +14549,7 @@
       <c r="E278" t="s">
         <v>1275</v>
       </c>
-      <c r="F278">
+      <c r="F278" s="3">
         <v>20160610182819</v>
       </c>
       <c r="G278" t="s">
@@ -14534,8 +14565,8 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
-      <c r="A279">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
         <v>8733989</v>
       </c>
       <c r="B279" t="s">
@@ -14550,7 +14581,7 @@
       <c r="E279" t="s">
         <v>1280</v>
       </c>
-      <c r="F279">
+      <c r="F279" s="3">
         <v>20160610190719</v>
       </c>
       <c r="G279" t="s">
@@ -14566,8 +14597,8 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
-      <c r="A280">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
         <v>8733990</v>
       </c>
       <c r="B280" t="s">
@@ -14582,7 +14613,7 @@
       <c r="E280" t="s">
         <v>1285</v>
       </c>
-      <c r="F280">
+      <c r="F280" s="3">
         <v>20160610191335</v>
       </c>
       <c r="G280" t="s">
@@ -14598,8 +14629,8 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
-      <c r="A281">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
         <v>8733991</v>
       </c>
       <c r="B281" t="s">
@@ -14614,7 +14645,7 @@
       <c r="E281" t="s">
         <v>1290</v>
       </c>
-      <c r="F281">
+      <c r="F281" s="3">
         <v>20160610192447</v>
       </c>
       <c r="G281" t="s">
@@ -14630,8 +14661,8 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
-      <c r="A282">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
         <v>8733992</v>
       </c>
       <c r="B282" t="s">
@@ -14646,7 +14677,7 @@
       <c r="E282" t="s">
         <v>1295</v>
       </c>
-      <c r="F282">
+      <c r="F282" s="3">
         <v>20160610195536</v>
       </c>
       <c r="G282" t="s">
@@ -14662,8 +14693,8 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
-      <c r="A283">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
         <v>8733993</v>
       </c>
       <c r="B283" t="s">
@@ -14678,7 +14709,7 @@
       <c r="E283" t="s">
         <v>1295</v>
       </c>
-      <c r="F283">
+      <c r="F283" s="3">
         <v>20160610195649</v>
       </c>
       <c r="G283" t="s">
@@ -14694,8 +14725,8 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
-      <c r="A284">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
         <v>8733994</v>
       </c>
       <c r="B284" t="s">
@@ -14710,7 +14741,7 @@
       <c r="E284" t="s">
         <v>1302</v>
       </c>
-      <c r="F284">
+      <c r="F284" s="3">
         <v>20160610210836</v>
       </c>
       <c r="G284" t="s">
@@ -14726,8 +14757,8 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
-      <c r="A285">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
         <v>8733995</v>
       </c>
       <c r="B285" t="s">
@@ -14742,7 +14773,7 @@
       <c r="E285" t="s">
         <v>1307</v>
       </c>
-      <c r="F285">
+      <c r="F285" s="3">
         <v>20160610213430</v>
       </c>
       <c r="G285" t="s">
@@ -14758,8 +14789,8 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
-      <c r="A286">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
         <v>8733996</v>
       </c>
       <c r="B286" t="s">
@@ -14774,7 +14805,7 @@
       <c r="E286" t="s">
         <v>1312</v>
       </c>
-      <c r="F286">
+      <c r="F286" s="3">
         <v>20160610215534</v>
       </c>
       <c r="G286" t="s">
@@ -14790,8 +14821,8 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
-      <c r="A287">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
         <v>8733997</v>
       </c>
       <c r="B287" t="s">
@@ -14806,7 +14837,7 @@
       <c r="E287" t="s">
         <v>1316</v>
       </c>
-      <c r="F287">
+      <c r="F287" s="3">
         <v>20160610223718</v>
       </c>
       <c r="G287" t="s">
@@ -14822,8 +14853,8 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
-      <c r="A288">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
         <v>8746979</v>
       </c>
       <c r="B288" t="s">
@@ -14838,7 +14869,7 @@
       <c r="E288" t="s">
         <v>1321</v>
       </c>
-      <c r="F288">
+      <c r="F288" s="3">
         <v>20160612171749</v>
       </c>
       <c r="G288" t="s">
@@ -14854,8 +14885,8 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
-      <c r="A289">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
         <v>8746980</v>
       </c>
       <c r="B289" t="s">
@@ -14870,7 +14901,7 @@
       <c r="E289" t="s">
         <v>48</v>
       </c>
-      <c r="F289">
+      <c r="F289" s="3">
         <v>20160612000000</v>
       </c>
       <c r="G289" t="s">
@@ -14886,8 +14917,8 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
-      <c r="A290">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
         <v>8746981</v>
       </c>
       <c r="B290" t="s">
@@ -14902,7 +14933,7 @@
       <c r="E290" t="s">
         <v>48</v>
       </c>
-      <c r="F290">
+      <c r="F290" s="3">
         <v>20160612231114</v>
       </c>
       <c r="G290" t="s">
@@ -14918,8 +14949,8 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
-      <c r="A291">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
         <v>8746982</v>
       </c>
       <c r="B291" t="s">
@@ -14934,7 +14965,7 @@
       <c r="E291" t="s">
         <v>1332</v>
       </c>
-      <c r="F291">
+      <c r="F291" s="3">
         <v>20160612231355</v>
       </c>
       <c r="G291" t="s">
@@ -14950,8 +14981,8 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
-      <c r="A292">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
         <v>8746983</v>
       </c>
       <c r="B292" t="s">
@@ -14966,7 +14997,7 @@
       <c r="E292" t="s">
         <v>1332</v>
       </c>
-      <c r="F292">
+      <c r="F292" s="3">
         <v>20160612231545</v>
       </c>
       <c r="G292" t="s">
@@ -14982,8 +15013,8 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="293" spans="1:10">
-      <c r="A293">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
         <v>8746984</v>
       </c>
       <c r="B293" t="s">
@@ -14998,7 +15029,7 @@
       <c r="E293" t="s">
         <v>1332</v>
       </c>
-      <c r="F293">
+      <c r="F293" s="3">
         <v>20160612231729</v>
       </c>
       <c r="G293" t="s">
@@ -15014,8 +15045,8 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="294" spans="1:10">
-      <c r="A294">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
         <v>8746985</v>
       </c>
       <c r="B294" t="s">
@@ -15030,7 +15061,7 @@
       <c r="E294" t="s">
         <v>1332</v>
       </c>
-      <c r="F294">
+      <c r="F294" s="3">
         <v>20160612231915</v>
       </c>
       <c r="G294" t="s">
@@ -15046,8 +15077,8 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
-      <c r="A295">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
         <v>8746986</v>
       </c>
       <c r="B295" t="s">
@@ -15062,7 +15093,7 @@
       <c r="E295" t="s">
         <v>1332</v>
       </c>
-      <c r="F295">
+      <c r="F295" s="3">
         <v>20160612232018</v>
       </c>
       <c r="G295" t="s">
@@ -15078,8 +15109,8 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
-      <c r="A296">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
         <v>8746987</v>
       </c>
       <c r="B296" t="s">
@@ -15094,7 +15125,7 @@
       <c r="E296" t="s">
         <v>1332</v>
       </c>
-      <c r="F296">
+      <c r="F296" s="3">
         <v>20160612232110</v>
       </c>
       <c r="G296" t="s">
@@ -15110,8 +15141,8 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
-      <c r="A297">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
         <v>8746988</v>
       </c>
       <c r="B297" t="s">
@@ -15126,7 +15157,7 @@
       <c r="E297" t="s">
         <v>1332</v>
       </c>
-      <c r="F297">
+      <c r="F297" s="3">
         <v>20160612232229</v>
       </c>
       <c r="G297" t="s">
@@ -15142,8 +15173,8 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
-      <c r="A298">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
         <v>8746989</v>
       </c>
       <c r="B298" t="s">
@@ -15158,7 +15189,7 @@
       <c r="E298" t="s">
         <v>1332</v>
       </c>
-      <c r="F298">
+      <c r="F298" s="3">
         <v>20160612232327</v>
       </c>
       <c r="G298" t="s">
@@ -15174,8 +15205,8 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
-      <c r="A299">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
         <v>8746990</v>
       </c>
       <c r="B299" t="s">
@@ -15190,7 +15221,7 @@
       <c r="E299" t="s">
         <v>1332</v>
       </c>
-      <c r="F299">
+      <c r="F299" s="3">
         <v>20160612232428</v>
       </c>
       <c r="G299" t="s">
@@ -15206,8 +15237,8 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
-      <c r="A300">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
         <v>8746991</v>
       </c>
       <c r="B300" t="s">
@@ -15222,7 +15253,7 @@
       <c r="E300" t="s">
         <v>1332</v>
       </c>
-      <c r="F300">
+      <c r="F300" s="3">
         <v>20160612232519</v>
       </c>
       <c r="G300" t="s">
@@ -15238,8 +15269,8 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
-      <c r="A301">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
         <v>8746992</v>
       </c>
       <c r="B301" t="s">
@@ -15254,7 +15285,7 @@
       <c r="E301" t="s">
         <v>1348</v>
       </c>
-      <c r="F301">
+      <c r="F301" s="3">
         <v>20160613000000</v>
       </c>
       <c r="G301" t="s">
@@ -15270,8 +15301,8 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="302" spans="1:10">
-      <c r="A302">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
         <v>8746993</v>
       </c>
       <c r="B302" t="s">
@@ -15286,7 +15317,7 @@
       <c r="E302" t="s">
         <v>1352</v>
       </c>
-      <c r="F302">
+      <c r="F302" s="3">
         <v>20160613094118</v>
       </c>
       <c r="G302" t="s">
@@ -15302,8 +15333,8 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="303" spans="1:10">
-      <c r="A303">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
         <v>8746994</v>
       </c>
       <c r="B303" t="s">
@@ -15318,7 +15349,7 @@
       <c r="E303" t="s">
         <v>1357</v>
       </c>
-      <c r="F303">
+      <c r="F303" s="3">
         <v>20160613000000</v>
       </c>
       <c r="G303" t="s">
@@ -15334,8 +15365,8 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="304" spans="1:10">
-      <c r="A304">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
         <v>8746995</v>
       </c>
       <c r="B304" t="s">
@@ -15350,7 +15381,7 @@
       <c r="E304" t="s">
         <v>20</v>
       </c>
-      <c r="F304">
+      <c r="F304" s="3">
         <v>20160613104216</v>
       </c>
       <c r="G304" t="s">
@@ -15366,8 +15397,8 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="305" spans="1:10">
-      <c r="A305">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
         <v>8746996</v>
       </c>
       <c r="B305" t="s">
@@ -15382,7 +15413,7 @@
       <c r="E305" t="s">
         <v>1366</v>
       </c>
-      <c r="F305">
+      <c r="F305" s="3">
         <v>20160613000000</v>
       </c>
       <c r="G305" t="s">
@@ -15398,8 +15429,8 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="306" spans="1:10">
-      <c r="A306">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
         <v>8746997</v>
       </c>
       <c r="B306" t="s">
@@ -15414,7 +15445,7 @@
       <c r="E306" t="s">
         <v>1371</v>
       </c>
-      <c r="F306">
+      <c r="F306" s="3">
         <v>20160613000000</v>
       </c>
       <c r="G306" t="s">
@@ -15430,8 +15461,8 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="307" spans="1:10">
-      <c r="A307">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
         <v>8746999</v>
       </c>
       <c r="B307" t="s">
@@ -15446,7 +15477,7 @@
       <c r="E307" t="s">
         <v>1376</v>
       </c>
-      <c r="F307">
+      <c r="F307" s="3">
         <v>20160613000000</v>
       </c>
       <c r="G307" t="s">
@@ -15462,8 +15493,8 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="308" spans="1:10">
-      <c r="A308">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
         <v>8747184</v>
       </c>
       <c r="B308" t="s">
@@ -15478,7 +15509,7 @@
       <c r="E308" t="s">
         <v>1381</v>
       </c>
-      <c r="F308">
+      <c r="F308" s="3">
         <v>20160613113815</v>
       </c>
       <c r="G308" t="s">
@@ -15494,8 +15525,8 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="309" spans="1:10">
-      <c r="A309">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
         <v>8747185</v>
       </c>
       <c r="B309" t="s">
@@ -15510,7 +15541,7 @@
       <c r="E309" t="s">
         <v>1386</v>
       </c>
-      <c r="F309">
+      <c r="F309" s="3">
         <v>20160613134046</v>
       </c>
       <c r="G309" t="s">
@@ -15526,8 +15557,8 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="310" spans="1:10">
-      <c r="A310">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
         <v>8747201</v>
       </c>
       <c r="B310" t="s">
@@ -15542,7 +15573,7 @@
       <c r="E310" t="s">
         <v>1391</v>
       </c>
-      <c r="F310">
+      <c r="F310" s="3">
         <v>20160613154422</v>
       </c>
       <c r="G310" t="s">
@@ -15558,8 +15589,8 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="311" spans="1:10">
-      <c r="A311">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
         <v>8747202</v>
       </c>
       <c r="B311" t="s">
@@ -15574,7 +15605,7 @@
       <c r="E311" t="s">
         <v>195</v>
       </c>
-      <c r="F311">
+      <c r="F311" s="3">
         <v>20160613000000</v>
       </c>
       <c r="G311" t="s">
@@ -15590,8 +15621,8 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="312" spans="1:10">
-      <c r="A312">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
         <v>8747203</v>
       </c>
       <c r="B312" t="s">
@@ -15606,7 +15637,7 @@
       <c r="E312" t="s">
         <v>1401</v>
       </c>
-      <c r="F312">
+      <c r="F312" s="3">
         <v>20160613165112</v>
       </c>
       <c r="G312" t="s">
@@ -15622,8 +15653,8 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="313" spans="1:10">
-      <c r="A313">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
         <v>8747204</v>
       </c>
       <c r="B313" t="s">
@@ -15638,7 +15669,7 @@
       <c r="E313" t="s">
         <v>1160</v>
       </c>
-      <c r="F313">
+      <c r="F313" s="3">
         <v>20160613183408</v>
       </c>
       <c r="G313" t="s">
@@ -15654,8 +15685,8 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="314" spans="1:10">
-      <c r="A314">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
         <v>8747205</v>
       </c>
       <c r="B314" t="s">
@@ -15670,7 +15701,7 @@
       <c r="E314" t="s">
         <v>375</v>
       </c>
-      <c r="F314">
+      <c r="F314" s="3">
         <v>20160613210125</v>
       </c>
       <c r="G314" t="s">
@@ -15686,8 +15717,8 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="315" spans="1:10">
-      <c r="A315">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
         <v>8747206</v>
       </c>
       <c r="B315" t="s">
@@ -15702,7 +15733,7 @@
       <c r="E315" t="s">
         <v>1416</v>
       </c>
-      <c r="F315">
+      <c r="F315" s="3">
         <v>20160614105004</v>
       </c>
       <c r="G315" t="s">
@@ -15718,8 +15749,8 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="316" spans="1:10">
-      <c r="A316">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
         <v>8747207</v>
       </c>
       <c r="B316" t="s">
@@ -15734,7 +15765,7 @@
       <c r="E316" t="s">
         <v>1416</v>
       </c>
-      <c r="F316">
+      <c r="F316" s="3">
         <v>20160614105114</v>
       </c>
       <c r="G316" t="s">
@@ -15750,8 +15781,8 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="317" spans="1:10">
-      <c r="A317">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
         <v>8760948</v>
       </c>
       <c r="B317" t="s">
@@ -15766,7 +15797,7 @@
       <c r="E317" t="s">
         <v>1352</v>
       </c>
-      <c r="F317">
+      <c r="F317" s="3">
         <v>20160614122457</v>
       </c>
       <c r="G317" t="s">
@@ -15782,8 +15813,8 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="318" spans="1:10">
-      <c r="A318">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
         <v>8761061</v>
       </c>
       <c r="B318" t="s">
@@ -15798,7 +15829,7 @@
       <c r="E318" t="s">
         <v>734</v>
       </c>
-      <c r="F318">
+      <c r="F318" s="3">
         <v>20160614132306</v>
       </c>
       <c r="G318" t="s">
@@ -15814,8 +15845,8 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="319" spans="1:10">
-      <c r="A319">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
         <v>8761062</v>
       </c>
       <c r="B319" t="s">
@@ -15830,7 +15861,7 @@
       <c r="E319" t="s">
         <v>734</v>
       </c>
-      <c r="F319">
+      <c r="F319" s="3">
         <v>20160614133030</v>
       </c>
       <c r="G319" t="s">
@@ -15846,8 +15877,8 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="320" spans="1:10">
-      <c r="A320">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
         <v>8761063</v>
       </c>
       <c r="B320" t="s">
@@ -15862,7 +15893,7 @@
       <c r="E320" t="s">
         <v>734</v>
       </c>
-      <c r="F320">
+      <c r="F320" s="3">
         <v>20160614000000</v>
       </c>
       <c r="G320" t="s">
@@ -15878,8 +15909,8 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="321" spans="1:10">
-      <c r="A321">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
         <v>8761064</v>
       </c>
       <c r="B321" t="s">
@@ -15894,7 +15925,7 @@
       <c r="E321" t="s">
         <v>1443</v>
       </c>
-      <c r="F321">
+      <c r="F321" s="3">
         <v>20160614142512</v>
       </c>
       <c r="G321" t="s">
@@ -15910,8 +15941,8 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="322" spans="1:10">
-      <c r="A322">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
         <v>8761065</v>
       </c>
       <c r="B322" t="s">
@@ -15926,7 +15957,7 @@
       <c r="E322" t="s">
         <v>99</v>
       </c>
-      <c r="F322">
+      <c r="F322" s="3">
         <v>20160614150631</v>
       </c>
       <c r="G322" t="s">
@@ -15942,8 +15973,8 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="323" spans="1:10">
-      <c r="A323">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
         <v>8762089</v>
       </c>
       <c r="B323" t="s">
@@ -15958,7 +15989,7 @@
       <c r="E323" t="s">
         <v>1453</v>
       </c>
-      <c r="F323">
+      <c r="F323" s="3">
         <v>20160614161817</v>
       </c>
       <c r="G323" t="s">
@@ -15974,8 +16005,8 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="324" spans="1:10">
-      <c r="A324">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
         <v>8762090</v>
       </c>
       <c r="B324" t="s">
@@ -15990,7 +16021,7 @@
       <c r="E324" t="s">
         <v>1453</v>
       </c>
-      <c r="F324">
+      <c r="F324" s="3">
         <v>20160614164727</v>
       </c>
       <c r="G324" t="s">
@@ -16006,8 +16037,8 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="325" spans="1:10">
-      <c r="A325">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
         <v>8762091</v>
       </c>
       <c r="B325" t="s">
@@ -16022,7 +16053,7 @@
       <c r="E325" t="s">
         <v>1460</v>
       </c>
-      <c r="F325">
+      <c r="F325" s="3">
         <v>20160614172955</v>
       </c>
       <c r="G325" t="s">
@@ -16038,8 +16069,8 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="326" spans="1:10">
-      <c r="A326">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
         <v>8762092</v>
       </c>
       <c r="B326" t="s">
@@ -16054,7 +16085,7 @@
       <c r="E326" t="s">
         <v>898</v>
       </c>
-      <c r="F326">
+      <c r="F326" s="3">
         <v>20160614184142</v>
       </c>
       <c r="G326" t="s">
@@ -16070,8 +16101,8 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="327" spans="1:10">
-      <c r="A327">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
         <v>8762093</v>
       </c>
       <c r="B327" t="s">
@@ -16086,7 +16117,7 @@
       <c r="E327" t="s">
         <v>898</v>
       </c>
-      <c r="F327">
+      <c r="F327" s="3">
         <v>20160614184307</v>
       </c>
       <c r="G327" t="s">
@@ -16102,8 +16133,8 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="328" spans="1:10">
-      <c r="A328">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
         <v>8762094</v>
       </c>
       <c r="B328" t="s">
@@ -16118,7 +16149,7 @@
       <c r="E328" t="s">
         <v>1042</v>
       </c>
-      <c r="F328">
+      <c r="F328" s="3">
         <v>20160615094813</v>
       </c>
       <c r="G328" t="s">
@@ -16134,8 +16165,8 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="329" spans="1:10">
-      <c r="A329">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
         <v>8762095</v>
       </c>
       <c r="B329" t="s">
@@ -16150,7 +16181,7 @@
       <c r="E329" t="s">
         <v>1042</v>
       </c>
-      <c r="F329">
+      <c r="F329" s="3">
         <v>20160615095111</v>
       </c>
       <c r="G329" t="s">
@@ -16166,8 +16197,8 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="330" spans="1:10">
-      <c r="A330">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
         <v>8762096</v>
       </c>
       <c r="B330" t="s">
@@ -16182,7 +16213,7 @@
       <c r="E330" t="s">
         <v>1042</v>
       </c>
-      <c r="F330">
+      <c r="F330" s="3">
         <v>20160615095346</v>
       </c>
       <c r="G330" t="s">
@@ -16198,8 +16229,8 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="331" spans="1:10">
-      <c r="A331">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
         <v>8762097</v>
       </c>
       <c r="B331" t="s">
@@ -16214,7 +16245,7 @@
       <c r="E331" t="s">
         <v>1484</v>
       </c>
-      <c r="F331">
+      <c r="F331" s="3">
         <v>20160615102131</v>
       </c>
       <c r="G331" t="s">
@@ -16230,8 +16261,8 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="332" spans="1:10">
-      <c r="A332">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
         <v>8774821</v>
       </c>
       <c r="B332" t="s">
@@ -16246,7 +16277,7 @@
       <c r="E332" t="s">
         <v>1489</v>
       </c>
-      <c r="F332">
+      <c r="F332" s="3">
         <v>20160615114138</v>
       </c>
       <c r="G332" t="s">
@@ -16262,8 +16293,8 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="333" spans="1:10">
-      <c r="A333">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
         <v>8774822</v>
       </c>
       <c r="B333" t="s">
@@ -16278,7 +16309,7 @@
       <c r="E333" t="s">
         <v>65</v>
       </c>
-      <c r="F333">
+      <c r="F333" s="3">
         <v>20160615150440</v>
       </c>
       <c r="G333" t="s">
@@ -16294,8 +16325,8 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="334" spans="1:10">
-      <c r="A334">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
         <v>8775803</v>
       </c>
       <c r="B334" t="s">
@@ -16310,7 +16341,7 @@
       <c r="E334" t="s">
         <v>1498</v>
       </c>
-      <c r="F334">
+      <c r="F334" s="3">
         <v>20160615160326</v>
       </c>
       <c r="G334" t="s">
@@ -16326,8 +16357,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="335" spans="1:10">
-      <c r="A335">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
         <v>8775804</v>
       </c>
       <c r="B335" t="s">
@@ -16342,7 +16373,7 @@
       <c r="E335" t="s">
         <v>323</v>
       </c>
-      <c r="F335">
+      <c r="F335" s="3">
         <v>20160615173025</v>
       </c>
       <c r="G335" t="s">
@@ -16358,8 +16389,8 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="336" spans="1:10">
-      <c r="A336">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
         <v>8775805</v>
       </c>
       <c r="B336" t="s">
@@ -16374,7 +16405,7 @@
       <c r="E336" t="s">
         <v>1508</v>
       </c>
-      <c r="F336">
+      <c r="F336" s="3">
         <v>20160616111059</v>
       </c>
       <c r="G336" t="s">
@@ -16390,8 +16421,8 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="337" spans="1:10">
-      <c r="A337">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
         <v>8786833</v>
       </c>
       <c r="B337" t="s">
@@ -16406,7 +16437,7 @@
       <c r="E337" t="s">
         <v>883</v>
       </c>
-      <c r="F337">
+      <c r="F337" s="3">
         <v>20160616000000</v>
       </c>
       <c r="G337" t="s">
@@ -16422,8 +16453,8 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="338" spans="1:10">
-      <c r="A338">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
         <v>8786834</v>
       </c>
       <c r="B338" t="s">
@@ -16438,7 +16469,7 @@
       <c r="E338" t="s">
         <v>406</v>
       </c>
-      <c r="F338">
+      <c r="F338" s="3">
         <v>20160616145554</v>
       </c>
       <c r="G338" t="s">
@@ -16454,8 +16485,8 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="339" spans="1:10">
-      <c r="A339">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
         <v>8787717</v>
       </c>
       <c r="B339" t="s">
@@ -16470,7 +16501,7 @@
       <c r="E339" t="s">
         <v>1523</v>
       </c>
-      <c r="F339">
+      <c r="F339" s="3">
         <v>20160616221750</v>
       </c>
       <c r="G339" t="s">
@@ -16486,8 +16517,8 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="340" spans="1:10">
-      <c r="A340">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
         <v>8787718</v>
       </c>
       <c r="B340" t="s">
@@ -16502,7 +16533,7 @@
       <c r="E340" t="s">
         <v>1528</v>
       </c>
-      <c r="F340">
+      <c r="F340" s="3">
         <v>20160617105147</v>
       </c>
       <c r="G340" t="s">
@@ -16518,8 +16549,8 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="341" spans="1:10">
-      <c r="A341">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
         <v>8788100</v>
       </c>
       <c r="B341" t="s">
@@ -16534,7 +16565,7 @@
       <c r="E341" t="s">
         <v>1533</v>
       </c>
-      <c r="F341">
+      <c r="F341" s="3">
         <v>20160617113730</v>
       </c>
       <c r="G341" t="s">
@@ -16550,8 +16581,8 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="342" spans="1:10">
-      <c r="A342">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
         <v>8799795</v>
       </c>
       <c r="B342" t="s">
@@ -16566,7 +16597,7 @@
       <c r="E342" t="s">
         <v>1538</v>
       </c>
-      <c r="F342">
+      <c r="F342" s="3">
         <v>20160617122009</v>
       </c>
       <c r="G342" t="s">
@@ -16582,8 +16613,8 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="343" spans="1:10">
-      <c r="A343">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
         <v>8799796</v>
       </c>
       <c r="B343" t="s">
@@ -16598,7 +16629,7 @@
       <c r="E343" t="s">
         <v>1484</v>
       </c>
-      <c r="F343">
+      <c r="F343" s="3">
         <v>20160617132638</v>
       </c>
       <c r="G343" t="s">
@@ -16614,8 +16645,8 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="344" spans="1:10">
-      <c r="A344">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
         <v>8799797</v>
       </c>
       <c r="B344" t="s">
@@ -16630,7 +16661,7 @@
       <c r="E344" t="s">
         <v>988</v>
       </c>
-      <c r="F344">
+      <c r="F344" s="3">
         <v>20160617134838</v>
       </c>
       <c r="G344" t="s">
@@ -16646,8 +16677,8 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="345" spans="1:10">
-      <c r="A345">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
         <v>8800702</v>
       </c>
       <c r="B345" t="s">
@@ -16662,7 +16693,7 @@
       <c r="E345" t="s">
         <v>70</v>
       </c>
-      <c r="F345">
+      <c r="F345" s="3">
         <v>20160618065551</v>
       </c>
       <c r="G345" t="s">
@@ -16678,8 +16709,8 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="346" spans="1:10">
-      <c r="A346">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
         <v>8813821</v>
       </c>
       <c r="B346" t="s">
@@ -16694,7 +16725,7 @@
       <c r="E346" t="s">
         <v>65</v>
       </c>
-      <c r="F346">
+      <c r="F346" s="3">
         <v>20160618215214</v>
       </c>
       <c r="G346" t="s">
@@ -16710,8 +16741,8 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="347" spans="1:10">
-      <c r="A347">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
         <v>8814072</v>
       </c>
       <c r="B347" t="s">
@@ -16726,7 +16757,7 @@
       <c r="E347" t="s">
         <v>1564</v>
       </c>
-      <c r="F347">
+      <c r="F347" s="3">
         <v>20160619195145</v>
       </c>
       <c r="G347" t="s">
@@ -16742,8 +16773,8 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="348" spans="1:10">
-      <c r="A348">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
         <v>8814288</v>
       </c>
       <c r="B348" t="s">
@@ -16758,7 +16789,7 @@
       <c r="E348" t="s">
         <v>1366</v>
       </c>
-      <c r="F348">
+      <c r="F348" s="3">
         <v>20160620112919</v>
       </c>
       <c r="G348" t="s">
@@ -16774,8 +16805,8 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="349" spans="1:10">
-      <c r="A349">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
         <v>8814290</v>
       </c>
       <c r="B349" t="s">
@@ -16790,7 +16821,7 @@
       <c r="E349" t="s">
         <v>70</v>
       </c>
-      <c r="F349">
+      <c r="F349" s="3">
         <v>20160620151318</v>
       </c>
       <c r="G349" t="s">
@@ -16806,8 +16837,8 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="350" spans="1:10">
-      <c r="A350">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
         <v>8814298</v>
       </c>
       <c r="B350" t="s">
@@ -16822,7 +16853,7 @@
       <c r="E350" t="s">
         <v>883</v>
       </c>
-      <c r="F350">
+      <c r="F350" s="3">
         <v>20160620220446</v>
       </c>
       <c r="G350" t="s">
@@ -16838,8 +16869,8 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="351" spans="1:10">
-      <c r="A351">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
         <v>8814299</v>
       </c>
       <c r="B351" t="s">
@@ -16854,7 +16885,7 @@
       <c r="E351" t="s">
         <v>773</v>
       </c>
-      <c r="F351">
+      <c r="F351" s="3">
         <v>20160621093922</v>
       </c>
       <c r="G351" t="s">
@@ -16870,8 +16901,8 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="352" spans="1:10">
-      <c r="A352">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
         <v>8814300</v>
       </c>
       <c r="B352" t="s">
@@ -16886,7 +16917,7 @@
       <c r="E352" t="s">
         <v>1588</v>
       </c>
-      <c r="F352">
+      <c r="F352" s="3">
         <v>20160621105400</v>
       </c>
       <c r="G352" t="s">
@@ -16902,8 +16933,8 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="353" spans="1:10">
-      <c r="A353">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
         <v>8828268</v>
       </c>
       <c r="B353" t="s">
@@ -16918,7 +16949,7 @@
       <c r="E353" t="s">
         <v>1593</v>
       </c>
-      <c r="F353">
+      <c r="F353" s="3">
         <v>20160621000000</v>
       </c>
       <c r="G353" t="s">
@@ -16934,8 +16965,8 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="354" spans="1:10">
-      <c r="A354">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
         <v>8829380</v>
       </c>
       <c r="B354" t="s">
@@ -16950,7 +16981,7 @@
       <c r="E354" t="s">
         <v>1210</v>
       </c>
-      <c r="F354">
+      <c r="F354" s="3">
         <v>20160621164126</v>
       </c>
       <c r="G354" t="s">
@@ -16966,8 +16997,8 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="355" spans="1:10">
-      <c r="A355">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
         <v>8843539</v>
       </c>
       <c r="B355" t="s">
@@ -16982,7 +17013,7 @@
       <c r="E355" t="s">
         <v>195</v>
       </c>
-      <c r="F355">
+      <c r="F355" s="3">
         <v>20160622000000</v>
       </c>
       <c r="G355" t="s">
@@ -16998,8 +17029,8 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="356" spans="1:10">
-      <c r="A356">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
         <v>8843540</v>
       </c>
       <c r="B356" t="s">
@@ -17014,7 +17045,7 @@
       <c r="E356" t="s">
         <v>1606</v>
       </c>
-      <c r="F356">
+      <c r="F356" s="3">
         <v>20160623085640</v>
       </c>
       <c r="G356" t="s">
@@ -17030,8 +17061,8 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="357" spans="1:10">
-      <c r="A357">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
         <v>8856272</v>
       </c>
       <c r="B357" t="s">
@@ -17046,7 +17077,7 @@
       <c r="E357" t="s">
         <v>1611</v>
       </c>
-      <c r="F357">
+      <c r="F357" s="3">
         <v>20160623173003</v>
       </c>
       <c r="G357" t="s">
@@ -17062,8 +17093,8 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="358" spans="1:10">
-      <c r="A358">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
         <v>8856273</v>
       </c>
       <c r="B358" t="s">
@@ -17078,7 +17109,7 @@
       <c r="E358" t="s">
         <v>1617</v>
       </c>
-      <c r="F358">
+      <c r="F358" s="3">
         <v>20160624100211</v>
       </c>
       <c r="G358" t="s">
@@ -17094,8 +17125,8 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="359" spans="1:10">
-      <c r="A359">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
         <v>8869714</v>
       </c>
       <c r="B359" t="s">
@@ -17110,7 +17141,7 @@
       <c r="E359" t="s">
         <v>1352</v>
       </c>
-      <c r="F359">
+      <c r="F359" s="3">
         <v>20160624154004</v>
       </c>
       <c r="G359" t="s">
@@ -17126,8 +17157,8 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="360" spans="1:10">
-      <c r="A360">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
         <v>8869715</v>
       </c>
       <c r="B360" t="s">
@@ -17142,7 +17173,7 @@
       <c r="E360" t="s">
         <v>1628</v>
       </c>
-      <c r="F360">
+      <c r="F360" s="3">
         <v>20160624161522</v>
       </c>
       <c r="G360" t="s">
@@ -17158,8 +17189,8 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="361" spans="1:10">
-      <c r="A361">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
         <v>8869716</v>
       </c>
       <c r="B361" t="s">
@@ -17174,7 +17205,7 @@
       <c r="E361" t="s">
         <v>420</v>
       </c>
-      <c r="F361">
+      <c r="F361" s="3">
         <v>20160624162635</v>
       </c>
       <c r="G361" t="s">
@@ -17190,8 +17221,8 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="362" spans="1:10">
-      <c r="A362">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
         <v>8869719</v>
       </c>
       <c r="B362" t="s">
@@ -17206,7 +17237,7 @@
       <c r="E362" t="s">
         <v>328</v>
       </c>
-      <c r="F362">
+      <c r="F362" s="3">
         <v>20160624171409</v>
       </c>
       <c r="G362" t="s">
@@ -17222,8 +17253,8 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="363" spans="1:10">
-      <c r="A363">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
         <v>8869722</v>
       </c>
       <c r="B363" t="s">
@@ -17238,7 +17269,7 @@
       <c r="E363" t="s">
         <v>1643</v>
       </c>
-      <c r="F363">
+      <c r="F363" s="3">
         <v>20160624210613</v>
       </c>
       <c r="G363" t="s">
@@ -17254,8 +17285,8 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="364" spans="1:10">
-      <c r="A364">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
         <v>8882034</v>
       </c>
       <c r="B364" t="s">
@@ -17270,7 +17301,7 @@
       <c r="E364" t="s">
         <v>65</v>
       </c>
-      <c r="F364">
+      <c r="F364" s="3">
         <v>20160625142214</v>
       </c>
       <c r="G364" t="s">
@@ -17286,8 +17317,8 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="365" spans="1:10">
-      <c r="A365">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
         <v>8882982</v>
       </c>
       <c r="B365" t="s">
@@ -17302,7 +17333,7 @@
       <c r="E365" t="s">
         <v>220</v>
       </c>
-      <c r="F365">
+      <c r="F365" s="3">
         <v>20160626084749</v>
       </c>
       <c r="G365" t="s">
@@ -17318,8 +17349,8 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="366" spans="1:10">
-      <c r="A366">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
         <v>8883222</v>
       </c>
       <c r="B366" t="s">
@@ -17334,7 +17365,7 @@
       <c r="E366" t="s">
         <v>1656</v>
       </c>
-      <c r="F366">
+      <c r="F366" s="3">
         <v>20160626171047</v>
       </c>
       <c r="G366" t="s">
@@ -17350,8 +17381,8 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="367" spans="1:10">
-      <c r="A367">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
         <v>8883223</v>
       </c>
       <c r="B367" t="s">
@@ -17366,7 +17397,7 @@
       <c r="E367" t="s">
         <v>20</v>
       </c>
-      <c r="F367">
+      <c r="F367" s="3">
         <v>20160627090206</v>
       </c>
       <c r="G367" t="s">
@@ -17382,8 +17413,8 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="368" spans="1:10">
-      <c r="A368">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
         <v>8883224</v>
       </c>
       <c r="B368" t="s">
@@ -17398,7 +17429,7 @@
       <c r="E368" t="s">
         <v>988</v>
       </c>
-      <c r="F368">
+      <c r="F368" s="3">
         <v>20160627102206</v>
       </c>
       <c r="G368" t="s">
@@ -17414,8 +17445,8 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="369" spans="1:10">
-      <c r="A369">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
         <v>8883409</v>
       </c>
       <c r="B369" t="s">
@@ -17430,7 +17461,7 @@
       <c r="E369" t="s">
         <v>1670</v>
       </c>
-      <c r="F369">
+      <c r="F369" s="3">
         <v>20160627141728</v>
       </c>
       <c r="G369" t="s">
@@ -17446,8 +17477,8 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="370" spans="1:10">
-      <c r="A370">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
         <v>8883410</v>
       </c>
       <c r="B370" t="s">
@@ -17462,7 +17493,7 @@
       <c r="E370" t="s">
         <v>328</v>
       </c>
-      <c r="F370">
+      <c r="F370" s="3">
         <v>20160627151346</v>
       </c>
       <c r="G370" t="s">
@@ -17478,8 +17509,8 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="371" spans="1:10">
-      <c r="A371">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
         <v>8883412</v>
       </c>
       <c r="B371" t="s">
@@ -17494,7 +17525,7 @@
       <c r="E371" t="s">
         <v>1677</v>
       </c>
-      <c r="F371">
+      <c r="F371" s="3">
         <v>20160627000000</v>
       </c>
       <c r="G371" t="s">
@@ -17510,8 +17541,8 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="372" spans="1:10">
-      <c r="A372">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
         <v>8883422</v>
       </c>
       <c r="B372" t="s">
@@ -17526,7 +17557,7 @@
       <c r="E372" t="s">
         <v>1683</v>
       </c>
-      <c r="F372">
+      <c r="F372" s="3">
         <v>20160627000000</v>
       </c>
       <c r="G372" t="s">
@@ -17542,8 +17573,8 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="373" spans="1:10">
-      <c r="A373">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
         <v>8883423</v>
       </c>
       <c r="B373" t="s">
@@ -17558,7 +17589,7 @@
       <c r="E373" t="s">
         <v>1683</v>
       </c>
-      <c r="F373">
+      <c r="F373" s="3">
         <v>20160627000000</v>
       </c>
       <c r="G373" t="s">
@@ -17574,8 +17605,8 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="374" spans="1:10">
-      <c r="A374">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
         <v>8883424</v>
       </c>
       <c r="B374" t="s">
@@ -17590,7 +17621,7 @@
       <c r="E374" t="s">
         <v>551</v>
       </c>
-      <c r="F374">
+      <c r="F374" s="3">
         <v>20160627162213</v>
       </c>
       <c r="G374" t="s">
@@ -17606,8 +17637,8 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="375" spans="1:10">
-      <c r="A375">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
         <v>8883425</v>
       </c>
       <c r="B375" t="s">
@@ -17622,7 +17653,7 @@
       <c r="E375" t="s">
         <v>1683</v>
       </c>
-      <c r="F375">
+      <c r="F375" s="3">
         <v>20160627170423</v>
       </c>
       <c r="G375" t="s">
@@ -17638,8 +17669,8 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="376" spans="1:10">
-      <c r="A376">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
         <v>8883426</v>
       </c>
       <c r="B376" t="s">
@@ -17654,7 +17685,7 @@
       <c r="E376" t="s">
         <v>1210</v>
       </c>
-      <c r="F376">
+      <c r="F376" s="3">
         <v>20160627182636</v>
       </c>
       <c r="G376" t="s">
@@ -17670,8 +17701,8 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="377" spans="1:10">
-      <c r="A377">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
         <v>8883427</v>
       </c>
       <c r="B377" t="s">
@@ -17686,7 +17717,7 @@
       <c r="E377" t="s">
         <v>1210</v>
       </c>
-      <c r="F377">
+      <c r="F377" s="3">
         <v>20160627190947</v>
       </c>
       <c r="G377" t="s">
@@ -17702,8 +17733,8 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="378" spans="1:10">
-      <c r="A378">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
         <v>8883428</v>
       </c>
       <c r="B378" t="s">
@@ -17718,7 +17749,7 @@
       <c r="E378" t="s">
         <v>571</v>
       </c>
-      <c r="F378">
+      <c r="F378" s="3">
         <v>20160627205131</v>
       </c>
       <c r="G378" t="s">
@@ -17734,8 +17765,8 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="379" spans="1:10">
-      <c r="A379">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
         <v>8897965</v>
       </c>
       <c r="B379" t="s">
@@ -17750,7 +17781,7 @@
       <c r="E379" t="s">
         <v>649</v>
       </c>
-      <c r="F379">
+      <c r="F379" s="3">
         <v>20160628134944</v>
       </c>
       <c r="G379" t="s">
@@ -17766,8 +17797,8 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="380" spans="1:10">
-      <c r="A380">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
         <v>8897966</v>
       </c>
       <c r="B380" t="s">
@@ -17782,7 +17813,7 @@
       <c r="E380" t="s">
         <v>773</v>
       </c>
-      <c r="F380">
+      <c r="F380" s="3">
         <v>20160628140958</v>
       </c>
       <c r="G380" t="s">
@@ -17798,8 +17829,8 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="381" spans="1:10">
-      <c r="A381">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
         <v>8897967</v>
       </c>
       <c r="B381" t="s">
@@ -17814,7 +17845,7 @@
       <c r="E381" t="s">
         <v>606</v>
       </c>
-      <c r="F381">
+      <c r="F381" s="3">
         <v>20160628150953</v>
       </c>
       <c r="G381" t="s">
@@ -17830,8 +17861,8 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="382" spans="1:10">
-      <c r="A382">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
         <v>8897968</v>
       </c>
       <c r="B382" t="s">
@@ -17846,7 +17877,7 @@
       <c r="E382" t="s">
         <v>1724</v>
       </c>
-      <c r="F382">
+      <c r="F382" s="3">
         <v>20160628152522</v>
       </c>
       <c r="G382" t="s">
@@ -17862,8 +17893,8 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="383" spans="1:10">
-      <c r="A383">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
         <v>8899131</v>
       </c>
       <c r="B383" t="s">
@@ -17878,7 +17909,7 @@
       <c r="E383" t="s">
         <v>1729</v>
       </c>
-      <c r="F383">
+      <c r="F383" s="3">
         <v>20160628182719</v>
       </c>
       <c r="G383" t="s">
@@ -17894,8 +17925,8 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="384" spans="1:10">
-      <c r="A384">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
         <v>8899132</v>
       </c>
       <c r="B384" t="s">
@@ -17910,7 +17941,7 @@
       <c r="E384" t="s">
         <v>1729</v>
       </c>
-      <c r="F384">
+      <c r="F384" s="3">
         <v>20160628182834</v>
       </c>
       <c r="G384" t="s">
@@ -17926,8 +17957,8 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="385" spans="1:10">
-      <c r="A385">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
         <v>8899133</v>
       </c>
       <c r="B385" t="s">
@@ -17942,7 +17973,7 @@
       <c r="E385" t="s">
         <v>1735</v>
       </c>
-      <c r="F385">
+      <c r="F385" s="3">
         <v>20160628203810</v>
       </c>
       <c r="G385" t="s">
@@ -17958,8 +17989,8 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="386" spans="1:10">
-      <c r="A386">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
         <v>8899134</v>
       </c>
       <c r="B386" t="s">
@@ -17974,7 +18005,7 @@
       <c r="E386" t="s">
         <v>1741</v>
       </c>
-      <c r="F386">
+      <c r="F386" s="3">
         <v>20160629091930</v>
       </c>
       <c r="G386" t="s">
@@ -17990,8 +18021,8 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="387" spans="1:10">
-      <c r="A387">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
         <v>8899135</v>
       </c>
       <c r="B387" t="s">
@@ -18006,7 +18037,7 @@
       <c r="E387" t="s">
         <v>48</v>
       </c>
-      <c r="F387">
+      <c r="F387" s="3">
         <v>20160629101913</v>
       </c>
       <c r="G387" t="s">
@@ -18022,8 +18053,8 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="388" spans="1:10">
-      <c r="A388">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
         <v>8899136</v>
       </c>
       <c r="B388" t="s">
@@ -18038,7 +18069,7 @@
       <c r="E388" t="s">
         <v>48</v>
       </c>
-      <c r="F388">
+      <c r="F388" s="3">
         <v>20160629000000</v>
       </c>
       <c r="G388" t="s">
@@ -18054,8 +18085,8 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="389" spans="1:10">
-      <c r="A389">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
         <v>8913539</v>
       </c>
       <c r="B389" t="s">
@@ -18070,7 +18101,7 @@
       <c r="E389" t="s">
         <v>893</v>
       </c>
-      <c r="F389">
+      <c r="F389" s="3">
         <v>20160629170604</v>
       </c>
       <c r="G389" t="s">
@@ -18086,8 +18117,8 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="390" spans="1:10">
-      <c r="A390">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
         <v>8913540</v>
       </c>
       <c r="B390" t="s">
@@ -18102,7 +18133,7 @@
       <c r="E390" t="s">
         <v>1756</v>
       </c>
-      <c r="F390">
+      <c r="F390" s="3">
         <v>20160629172016</v>
       </c>
       <c r="G390" t="s">
@@ -18119,17 +18150,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>